--- a/BackTest/2019-10-29 BackTest POWR.xlsx
+++ b/BackTest/2019-10-29 BackTest POWR.xlsx
@@ -451,7 +451,7 @@
         <v>54.65999999999998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -486,14 +486,20 @@
         <v>54.61499999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>54.7</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -521,14 +527,20 @@
         <v>54.54999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>54</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -556,14 +568,20 @@
         <v>54.47499999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>53.8</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -591,14 +609,20 @@
         <v>54.40499999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>53.8</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -626,14 +650,20 @@
         <v>54.33999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>53.8</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -661,14 +691,20 @@
         <v>54.26499999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>54</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -696,14 +732,20 @@
         <v>54.20499999999998</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>54</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -738,7 +780,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -773,7 +819,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -808,7 +858,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -843,7 +897,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -878,7 +936,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -913,7 +975,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -948,7 +1014,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1053,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1018,7 +1092,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1053,7 +1131,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1088,7 +1170,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1123,7 +1209,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1151,14 +1241,20 @@
         <v>54.10499999999998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>54</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1186,14 +1282,20 @@
         <v>54.11499999999997</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>54.3</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1221,14 +1323,20 @@
         <v>54.13499999999998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>54.2</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1256,14 +1364,20 @@
         <v>54.14499999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>54.2</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1291,14 +1405,20 @@
         <v>54.14999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>53.9</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1326,18 +1446,16 @@
         <v>54.13499999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>53.7</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1367,14 +1485,12 @@
         <v>54.11499999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>53.5</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
@@ -1408,14 +1524,12 @@
         <v>54.11499999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>54.1</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
@@ -1449,14 +1563,12 @@
         <v>54.11499999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>54.1</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
@@ -1496,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.8</v>
+        <v>54.1</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
@@ -1531,14 +1643,12 @@
         <v>54.07999999999998</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>53.8</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
@@ -1578,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
@@ -1619,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
@@ -1695,14 +1805,12 @@
         <v>54.00999999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>54</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
@@ -1736,14 +1844,12 @@
         <v>53.98999999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>54</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -1777,14 +1883,12 @@
         <v>53.96999999999998</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>54</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -1818,14 +1922,12 @@
         <v>53.95999999999998</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>54.1</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -1859,14 +1961,12 @@
         <v>53.96499999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>54.2</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -1900,14 +2000,12 @@
         <v>53.97999999999998</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>54.3</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -1941,14 +2039,12 @@
         <v>53.98999999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>54.5</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -1982,14 +2078,12 @@
         <v>54.01499999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -2023,14 +2117,12 @@
         <v>54.03999999999998</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>54.7</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2064,14 +2156,12 @@
         <v>54.08999999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>54.9</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2225,18 +2315,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2264,15 +2352,11 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2303,15 +2387,11 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2346,11 +2426,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2385,11 +2461,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2424,11 +2496,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2463,11 +2531,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2502,11 +2566,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2541,11 +2601,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2580,11 +2636,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2619,11 +2671,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2658,11 +2706,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2697,11 +2741,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2736,11 +2776,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2775,11 +2811,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2814,11 +2846,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2853,11 +2881,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2892,11 +2916,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2931,11 +2951,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2970,11 +2986,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3009,11 +3021,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3048,11 +3056,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3087,11 +3091,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3126,11 +3126,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3165,11 +3161,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3204,11 +3196,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3243,11 +3231,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3282,11 +3266,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3321,11 +3301,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3360,11 +3336,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3399,11 +3371,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3438,11 +3406,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3477,11 +3441,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3516,11 +3476,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3555,11 +3511,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3594,11 +3546,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3633,11 +3581,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3672,11 +3616,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3711,11 +3651,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3750,11 +3686,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3789,11 +3721,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3828,11 +3756,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3867,11 +3791,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3906,11 +3826,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3945,11 +3861,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3984,11 +3896,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4023,11 +3931,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4062,11 +3966,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4101,11 +4001,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4140,11 +4036,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4179,11 +4071,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4218,11 +4106,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4257,11 +4141,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4296,11 +4176,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4335,11 +4211,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4374,11 +4246,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4413,11 +4281,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4452,11 +4316,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4491,11 +4351,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4530,11 +4386,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4569,11 +4421,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4608,11 +4456,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4647,11 +4491,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4686,11 +4526,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4725,11 +4561,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4764,11 +4596,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4803,11 +4631,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4842,11 +4666,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4881,11 +4701,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4920,11 +4736,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4959,11 +4771,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4998,11 +4806,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5037,11 +4841,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5076,11 +4876,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5115,11 +4911,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5154,11 +4946,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5193,11 +4981,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5232,11 +5016,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5271,11 +5051,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5310,11 +5086,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5349,11 +5121,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5388,11 +5156,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5427,11 +5191,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5466,11 +5226,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5505,11 +5261,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5544,11 +5296,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5583,11 +5331,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5622,11 +5366,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5661,11 +5401,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5700,11 +5436,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5739,11 +5471,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5778,11 +5506,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5817,11 +5541,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5856,11 +5576,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5895,11 +5611,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5934,11 +5646,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5973,11 +5681,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6012,11 +5716,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6051,11 +5751,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6090,11 +5786,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6129,11 +5821,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6168,11 +5856,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6207,11 +5891,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6246,11 +5926,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6285,11 +5961,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6324,11 +5996,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6363,11 +6031,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6402,11 +6066,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6441,11 +6101,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6480,11 +6136,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6519,11 +6171,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6558,11 +6206,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6597,11 +6241,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6636,11 +6276,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6675,11 +6311,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6714,11 +6346,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6753,11 +6381,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6792,11 +6416,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6831,11 +6451,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6870,11 +6486,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6909,11 +6521,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6948,11 +6556,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6987,11 +6591,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7022,16 +6622,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7059,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
@@ -7094,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest POWR.xlsx
+++ b/BackTest/2019-10-29 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M258"/>
+  <dimension ref="A1:M259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>53.8</v>
+        <v>54.2</v>
       </c>
       <c r="C2" t="n">
-        <v>54.7</v>
+        <v>54.3</v>
       </c>
       <c r="D2" t="n">
-        <v>54.7</v>
+        <v>54.3</v>
       </c>
       <c r="E2" t="n">
-        <v>53.8</v>
+        <v>54.2</v>
       </c>
       <c r="F2" t="n">
-        <v>6947.4759</v>
+        <v>2389.7387</v>
       </c>
       <c r="G2" t="n">
-        <v>54.65999999999998</v>
+        <v>55.68666666666665</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,38 +468,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>54.7</v>
       </c>
       <c r="D3" t="n">
-        <v>54.3</v>
+        <v>54.7</v>
       </c>
       <c r="E3" t="n">
-        <v>53.7</v>
+        <v>53.8</v>
       </c>
       <c r="F3" t="n">
-        <v>47187.8934</v>
+        <v>6947.4759</v>
       </c>
       <c r="G3" t="n">
-        <v>54.61499999999999</v>
+        <v>55.63999999999998</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>54.7</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -509,38 +503,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="C4" t="n">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="D4" t="n">
-        <v>53.8</v>
+        <v>54.3</v>
       </c>
       <c r="E4" t="n">
-        <v>53.8</v>
+        <v>53.7</v>
       </c>
       <c r="F4" t="n">
-        <v>606.4195</v>
+        <v>47187.8934</v>
       </c>
       <c r="G4" t="n">
-        <v>54.54999999999999</v>
+        <v>55.58333333333331</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>54</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -550,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53.7</v>
+        <v>53.8</v>
       </c>
       <c r="C5" t="n">
         <v>53.8</v>
@@ -559,29 +547,23 @@
         <v>53.8</v>
       </c>
       <c r="E5" t="n">
-        <v>53.7</v>
+        <v>53.8</v>
       </c>
       <c r="F5" t="n">
-        <v>1600</v>
+        <v>606.4195</v>
       </c>
       <c r="G5" t="n">
-        <v>54.47499999999999</v>
+        <v>55.52333333333331</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>53.8</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -591,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53.8</v>
+        <v>53.7</v>
       </c>
       <c r="C6" t="n">
         <v>53.8</v>
@@ -600,29 +582,23 @@
         <v>53.8</v>
       </c>
       <c r="E6" t="n">
-        <v>53.8</v>
+        <v>53.7</v>
       </c>
       <c r="F6" t="n">
-        <v>5032.3891</v>
+        <v>1600</v>
       </c>
       <c r="G6" t="n">
-        <v>54.40499999999999</v>
+        <v>55.46333333333332</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>53.8</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -632,38 +608,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>54</v>
+        <v>53.8</v>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>53.8</v>
       </c>
       <c r="D7" t="n">
-        <v>54</v>
+        <v>53.8</v>
       </c>
       <c r="E7" t="n">
-        <v>54</v>
+        <v>53.8</v>
       </c>
       <c r="F7" t="n">
-        <v>9000</v>
+        <v>5032.3891</v>
       </c>
       <c r="G7" t="n">
-        <v>54.33999999999999</v>
+        <v>55.40166666666665</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>53.8</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -673,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="C8" t="n">
         <v>54</v>
@@ -682,29 +652,23 @@
         <v>54</v>
       </c>
       <c r="E8" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="F8" t="n">
-        <v>28961</v>
+        <v>9000</v>
       </c>
       <c r="G8" t="n">
-        <v>54.26499999999999</v>
+        <v>55.34499999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>54</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -714,38 +678,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>54.1</v>
+        <v>53.9</v>
       </c>
       <c r="C9" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="D9" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="E9" t="n">
-        <v>54.1</v>
+        <v>53.9</v>
       </c>
       <c r="F9" t="n">
-        <v>4422</v>
+        <v>28961</v>
       </c>
       <c r="G9" t="n">
-        <v>54.20499999999998</v>
+        <v>55.28833333333331</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>54</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -767,10 +725,10 @@
         <v>54.1</v>
       </c>
       <c r="F10" t="n">
-        <v>2000</v>
+        <v>4422</v>
       </c>
       <c r="G10" t="n">
-        <v>54.15999999999998</v>
+        <v>55.24333333333331</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -780,11 +738,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -806,10 +760,10 @@
         <v>54.1</v>
       </c>
       <c r="F11" t="n">
-        <v>1323.7681</v>
+        <v>2000</v>
       </c>
       <c r="G11" t="n">
-        <v>54.10999999999998</v>
+        <v>55.19999999999997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -819,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -833,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="C12" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="D12" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="E12" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="F12" t="n">
-        <v>75740.92969999999</v>
+        <v>1323.7681</v>
       </c>
       <c r="G12" t="n">
-        <v>54.08499999999998</v>
+        <v>55.16499999999998</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -858,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -872,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>54.3</v>
+        <v>54.2</v>
       </c>
       <c r="C13" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="D13" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="E13" t="n">
-        <v>54.3</v>
+        <v>54.2</v>
       </c>
       <c r="F13" t="n">
-        <v>1271.6124</v>
+        <v>75740.92969999999</v>
       </c>
       <c r="G13" t="n">
-        <v>54.06999999999998</v>
+        <v>55.13499999999998</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -897,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -923,10 +865,10 @@
         <v>54.3</v>
       </c>
       <c r="F14" t="n">
-        <v>2304</v>
+        <v>1271.6124</v>
       </c>
       <c r="G14" t="n">
-        <v>54.05999999999998</v>
+        <v>55.10666666666665</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -936,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -950,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="C15" t="n">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="D15" t="n">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="E15" t="n">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="F15" t="n">
-        <v>1969</v>
+        <v>2304</v>
       </c>
       <c r="G15" t="n">
-        <v>54.03999999999998</v>
+        <v>55.07833333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -975,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -992,19 +926,19 @@
         <v>54.2</v>
       </c>
       <c r="C16" t="n">
-        <v>54.4</v>
+        <v>54.2</v>
       </c>
       <c r="D16" t="n">
-        <v>54.4</v>
+        <v>54.2</v>
       </c>
       <c r="E16" t="n">
         <v>54.2</v>
       </c>
       <c r="F16" t="n">
-        <v>3270.4937</v>
+        <v>1969</v>
       </c>
       <c r="G16" t="n">
-        <v>54.03999999999998</v>
+        <v>55.04666666666665</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1014,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1028,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>54.4</v>
+        <v>54.2</v>
       </c>
       <c r="C17" t="n">
         <v>54.4</v>
@@ -1037,13 +967,13 @@
         <v>54.4</v>
       </c>
       <c r="E17" t="n">
-        <v>54.4</v>
+        <v>54.2</v>
       </c>
       <c r="F17" t="n">
-        <v>694.2413</v>
+        <v>3270.4937</v>
       </c>
       <c r="G17" t="n">
-        <v>54.04999999999999</v>
+        <v>55.01833333333332</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1053,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1079,10 +1005,10 @@
         <v>54.4</v>
       </c>
       <c r="F18" t="n">
-        <v>691.1337</v>
+        <v>694.2413</v>
       </c>
       <c r="G18" t="n">
-        <v>54.05999999999999</v>
+        <v>54.98999999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1092,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1106,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="C19" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="D19" t="n">
         <v>54.4</v>
       </c>
       <c r="E19" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="F19" t="n">
-        <v>4872.928</v>
+        <v>691.1337</v>
       </c>
       <c r="G19" t="n">
-        <v>54.07499999999999</v>
+        <v>54.96166666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1131,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1145,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>54.1</v>
+        <v>54.3</v>
       </c>
       <c r="C20" t="n">
-        <v>54.1</v>
+        <v>54.3</v>
       </c>
       <c r="D20" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="E20" t="n">
-        <v>54.1</v>
+        <v>54.3</v>
       </c>
       <c r="F20" t="n">
-        <v>2555.2125</v>
+        <v>4872.928</v>
       </c>
       <c r="G20" t="n">
-        <v>54.08999999999999</v>
+        <v>54.93833333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1170,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1184,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="C21" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="D21" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="E21" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="F21" t="n">
-        <v>1780.502</v>
+        <v>2555.2125</v>
       </c>
       <c r="G21" t="n">
-        <v>54.07999999999998</v>
+        <v>54.91166666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1209,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1223,38 +1133,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>54.3</v>
+        <v>54</v>
       </c>
       <c r="C22" t="n">
-        <v>54.3</v>
+        <v>54</v>
       </c>
       <c r="D22" t="n">
-        <v>54.3</v>
+        <v>54</v>
       </c>
       <c r="E22" t="n">
-        <v>54.3</v>
+        <v>54</v>
       </c>
       <c r="F22" t="n">
-        <v>614</v>
+        <v>1780.502</v>
       </c>
       <c r="G22" t="n">
-        <v>54.10499999999998</v>
+        <v>54.88500000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>54</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1264,38 +1168,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>54.1</v>
+        <v>54.3</v>
       </c>
       <c r="C23" t="n">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="D23" t="n">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="E23" t="n">
-        <v>54.1</v>
+        <v>54.3</v>
       </c>
       <c r="F23" t="n">
-        <v>10595.4797</v>
+        <v>614</v>
       </c>
       <c r="G23" t="n">
-        <v>54.11499999999997</v>
+        <v>54.86166666666668</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>54.3</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1305,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="C24" t="n">
         <v>54.2</v>
@@ -1314,29 +1212,23 @@
         <v>54.2</v>
       </c>
       <c r="E24" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>10595.4797</v>
       </c>
       <c r="G24" t="n">
-        <v>54.13499999999998</v>
+        <v>54.83666666666668</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>54.2</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1346,38 +1238,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>53.9</v>
+        <v>54.2</v>
       </c>
       <c r="C25" t="n">
-        <v>53.9</v>
+        <v>54.2</v>
       </c>
       <c r="D25" t="n">
-        <v>53.9</v>
+        <v>54.2</v>
       </c>
       <c r="E25" t="n">
-        <v>53.9</v>
+        <v>54.2</v>
       </c>
       <c r="F25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>54.14499999999998</v>
+        <v>54.81166666666668</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>54.2</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1390,35 +1276,29 @@
         <v>53.9</v>
       </c>
       <c r="C26" t="n">
-        <v>54.2</v>
+        <v>53.9</v>
       </c>
       <c r="D26" t="n">
-        <v>54.2</v>
+        <v>53.9</v>
       </c>
       <c r="E26" t="n">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="F26" t="n">
-        <v>24141.2105</v>
+        <v>29</v>
       </c>
       <c r="G26" t="n">
-        <v>54.14999999999999</v>
+        <v>54.77833333333334</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>53.9</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1428,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>53.7</v>
+        <v>53.9</v>
       </c>
       <c r="C27" t="n">
         <v>54.2</v>
       </c>
       <c r="D27" t="n">
-        <v>54.3</v>
+        <v>54.2</v>
       </c>
       <c r="E27" t="n">
-        <v>53.5</v>
+        <v>53.8</v>
       </c>
       <c r="F27" t="n">
-        <v>40881.7856</v>
+        <v>24141.2105</v>
       </c>
       <c r="G27" t="n">
-        <v>54.13499999999999</v>
+        <v>54.75000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1453,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1467,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>53.5</v>
+        <v>53.7</v>
       </c>
       <c r="C28" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="D28" t="n">
-        <v>54.4</v>
+        <v>54.3</v>
       </c>
       <c r="E28" t="n">
         <v>53.5</v>
       </c>
       <c r="F28" t="n">
-        <v>43900.7856</v>
+        <v>40881.7856</v>
       </c>
       <c r="G28" t="n">
-        <v>54.11499999999999</v>
+        <v>54.72500000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1492,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1506,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>54.1</v>
+        <v>53.5</v>
       </c>
       <c r="C29" t="n">
         <v>54.1</v>
       </c>
       <c r="D29" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="E29" t="n">
-        <v>54.1</v>
+        <v>53.5</v>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>43900.7856</v>
       </c>
       <c r="G29" t="n">
-        <v>54.11499999999999</v>
+        <v>54.69833333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1531,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1557,10 +1425,10 @@
         <v>54.1</v>
       </c>
       <c r="F30" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G30" t="n">
-        <v>54.11499999999999</v>
+        <v>54.66666666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1570,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1584,38 +1448,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>53.8</v>
+        <v>54.1</v>
       </c>
       <c r="C31" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="D31" t="n">
         <v>54.1</v>
       </c>
       <c r="E31" t="n">
-        <v>53.6</v>
+        <v>54.1</v>
       </c>
       <c r="F31" t="n">
-        <v>10927.7645</v>
+        <v>200</v>
       </c>
       <c r="G31" t="n">
-        <v>54.09999999999999</v>
+        <v>54.63833333333334</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>54.1</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1628,19 +1486,19 @@
         <v>53.8</v>
       </c>
       <c r="C32" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="D32" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="E32" t="n">
-        <v>53.8</v>
+        <v>53.6</v>
       </c>
       <c r="F32" t="n">
-        <v>13747.3023</v>
+        <v>10927.7645</v>
       </c>
       <c r="G32" t="n">
-        <v>54.07999999999998</v>
+        <v>54.60833333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1650,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1667,35 +1521,29 @@
         <v>53.8</v>
       </c>
       <c r="C33" t="n">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="D33" t="n">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="E33" t="n">
         <v>53.8</v>
       </c>
       <c r="F33" t="n">
-        <v>6293.7646</v>
+        <v>13747.3023</v>
       </c>
       <c r="G33" t="n">
-        <v>54.05499999999999</v>
+        <v>54.575</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>53.9</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1705,38 +1553,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="C34" t="n">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="D34" t="n">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="E34" t="n">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="F34" t="n">
-        <v>2279.1334</v>
+        <v>6293.7646</v>
       </c>
       <c r="G34" t="n">
-        <v>54.03499999999999</v>
+        <v>54.53833333333333</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>53.8</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1758,26 +1600,20 @@
         <v>53.9</v>
       </c>
       <c r="F35" t="n">
-        <v>8316.346299999999</v>
+        <v>2279.1334</v>
       </c>
       <c r="G35" t="n">
-        <v>54.02</v>
+        <v>54.50333333333334</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>53.9</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1787,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="C36" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="D36" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="E36" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="F36" t="n">
-        <v>1229.1333</v>
+        <v>8316.346299999999</v>
       </c>
       <c r="G36" t="n">
-        <v>54.00999999999999</v>
+        <v>54.47000000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1812,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1838,10 +1670,10 @@
         <v>54</v>
       </c>
       <c r="F37" t="n">
-        <v>9817.104300000001</v>
+        <v>1229.1333</v>
       </c>
       <c r="G37" t="n">
-        <v>53.98999999999999</v>
+        <v>54.43833333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1851,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1877,10 +1705,10 @@
         <v>54</v>
       </c>
       <c r="F38" t="n">
-        <v>2000</v>
+        <v>9817.104300000001</v>
       </c>
       <c r="G38" t="n">
-        <v>53.96999999999998</v>
+        <v>54.40833333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1890,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1904,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="C39" t="n">
-        <v>54.2</v>
+        <v>54</v>
       </c>
       <c r="D39" t="n">
-        <v>54.2</v>
+        <v>54</v>
       </c>
       <c r="E39" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="F39" t="n">
-        <v>80010</v>
+        <v>2000</v>
       </c>
       <c r="G39" t="n">
-        <v>53.95999999999998</v>
+        <v>54.37833333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1929,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1943,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="C40" t="n">
         <v>54.2</v>
       </c>
       <c r="D40" t="n">
-        <v>54.4</v>
+        <v>54.2</v>
       </c>
       <c r="E40" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="F40" t="n">
-        <v>1733556.5917</v>
+        <v>80010</v>
       </c>
       <c r="G40" t="n">
-        <v>53.96499999999999</v>
+        <v>54.35166666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1968,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1982,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>54.3</v>
+        <v>54.2</v>
       </c>
       <c r="C41" t="n">
-        <v>54.3</v>
+        <v>54.2</v>
       </c>
       <c r="D41" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="E41" t="n">
-        <v>54.3</v>
+        <v>54.2</v>
       </c>
       <c r="F41" t="n">
-        <v>273000</v>
+        <v>1733556.5917</v>
       </c>
       <c r="G41" t="n">
-        <v>53.97999999999998</v>
+        <v>54.33166666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2007,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2021,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>54.5</v>
+        <v>54.3</v>
       </c>
       <c r="C42" t="n">
-        <v>54.5</v>
+        <v>54.3</v>
       </c>
       <c r="D42" t="n">
-        <v>54.5</v>
+        <v>54.3</v>
       </c>
       <c r="E42" t="n">
-        <v>54.5</v>
+        <v>54.3</v>
       </c>
       <c r="F42" t="n">
-        <v>132000</v>
+        <v>273000</v>
       </c>
       <c r="G42" t="n">
-        <v>53.98999999999999</v>
+        <v>54.31666666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2046,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2060,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="C43" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="D43" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="E43" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="F43" t="n">
-        <v>145000</v>
+        <v>132000</v>
       </c>
       <c r="G43" t="n">
-        <v>54.01499999999999</v>
+        <v>54.30666666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2085,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2099,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="C44" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="D44" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="E44" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="F44" t="n">
-        <v>5894.4777</v>
+        <v>145000</v>
       </c>
       <c r="G44" t="n">
-        <v>54.03999999999998</v>
+        <v>54.30499999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2124,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2138,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="C45" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="D45" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="E45" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="F45" t="n">
-        <v>1000</v>
+        <v>5894.4777</v>
       </c>
       <c r="G45" t="n">
-        <v>54.08999999999999</v>
+        <v>54.29666666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2163,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2177,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>55.1</v>
+        <v>54.9</v>
       </c>
       <c r="C46" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="D46" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="E46" t="n">
-        <v>55.1</v>
+        <v>54.9</v>
       </c>
       <c r="F46" t="n">
-        <v>109802.3219</v>
+        <v>1000</v>
       </c>
       <c r="G46" t="n">
-        <v>54.14999999999998</v>
+        <v>54.29166666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2202,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2216,7 +2008,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>55.3</v>
+        <v>55.1</v>
       </c>
       <c r="C47" t="n">
         <v>55.3</v>
@@ -2225,13 +2017,13 @@
         <v>55.3</v>
       </c>
       <c r="E47" t="n">
-        <v>55.3</v>
+        <v>55.1</v>
       </c>
       <c r="F47" t="n">
-        <v>18900000</v>
+        <v>109802.3219</v>
       </c>
       <c r="G47" t="n">
-        <v>54.22999999999998</v>
+        <v>54.29333333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2241,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2267,10 +2055,10 @@
         <v>55.3</v>
       </c>
       <c r="F48" t="n">
-        <v>10517232.9113</v>
+        <v>18900000</v>
       </c>
       <c r="G48" t="n">
-        <v>54.31999999999997</v>
+        <v>54.29333333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2280,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2306,25 +2090,23 @@
         <v>55.3</v>
       </c>
       <c r="F49" t="n">
-        <v>104148.2702</v>
+        <v>10517232.9113</v>
       </c>
       <c r="G49" t="n">
-        <v>54.37999999999997</v>
+        <v>54.29166666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2343,10 +2125,10 @@
         <v>55.3</v>
       </c>
       <c r="F50" t="n">
-        <v>8400000</v>
+        <v>104148.2702</v>
       </c>
       <c r="G50" t="n">
-        <v>54.43999999999998</v>
+        <v>54.29166666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2372,16 +2154,16 @@
         <v>55.3</v>
       </c>
       <c r="D51" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="E51" t="n">
         <v>55.3</v>
       </c>
       <c r="F51" t="n">
-        <v>4907517.9674</v>
+        <v>8400000</v>
       </c>
       <c r="G51" t="n">
-        <v>54.51499999999997</v>
+        <v>54.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2407,16 +2189,16 @@
         <v>55.3</v>
       </c>
       <c r="D52" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="E52" t="n">
         <v>55.3</v>
       </c>
       <c r="F52" t="n">
-        <v>8631483</v>
+        <v>4907517.9674</v>
       </c>
       <c r="G52" t="n">
-        <v>54.58999999999997</v>
+        <v>54.30333333333335</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2448,10 +2230,10 @@
         <v>55.3</v>
       </c>
       <c r="F53" t="n">
-        <v>18550714</v>
+        <v>8631483</v>
       </c>
       <c r="G53" t="n">
-        <v>54.66499999999998</v>
+        <v>54.31333333333335</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2480,13 +2262,13 @@
         <v>55.3</v>
       </c>
       <c r="E54" t="n">
-        <v>54.7</v>
+        <v>55.3</v>
       </c>
       <c r="F54" t="n">
-        <v>18460205.6074</v>
+        <v>18550714</v>
       </c>
       <c r="G54" t="n">
-        <v>54.73499999999997</v>
+        <v>54.32500000000002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2515,13 +2297,13 @@
         <v>55.3</v>
       </c>
       <c r="E55" t="n">
-        <v>55.3</v>
+        <v>54.7</v>
       </c>
       <c r="F55" t="n">
-        <v>18206224.2261</v>
+        <v>18460205.6074</v>
       </c>
       <c r="G55" t="n">
-        <v>54.80499999999996</v>
+        <v>54.33833333333336</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2553,10 +2335,10 @@
         <v>55.3</v>
       </c>
       <c r="F56" t="n">
-        <v>18340000</v>
+        <v>18206224.2261</v>
       </c>
       <c r="G56" t="n">
-        <v>54.86999999999996</v>
+        <v>54.3566666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2588,10 +2370,10 @@
         <v>55.3</v>
       </c>
       <c r="F57" t="n">
-        <v>18410000</v>
+        <v>18340000</v>
       </c>
       <c r="G57" t="n">
-        <v>54.93499999999996</v>
+        <v>54.3716666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2623,10 +2405,10 @@
         <v>55.3</v>
       </c>
       <c r="F58" t="n">
-        <v>18200000</v>
+        <v>18410000</v>
       </c>
       <c r="G58" t="n">
-        <v>54.99999999999996</v>
+        <v>54.39333333333337</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2658,10 +2440,10 @@
         <v>55.3</v>
       </c>
       <c r="F59" t="n">
-        <v>18270000</v>
+        <v>18200000</v>
       </c>
       <c r="G59" t="n">
-        <v>55.05999999999996</v>
+        <v>54.41166666666671</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2693,10 +2475,10 @@
         <v>55.3</v>
       </c>
       <c r="F60" t="n">
-        <v>12110000</v>
+        <v>18270000</v>
       </c>
       <c r="G60" t="n">
-        <v>55.11499999999995</v>
+        <v>54.43333333333338</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2728,10 +2510,10 @@
         <v>55.3</v>
       </c>
       <c r="F61" t="n">
-        <v>2592000</v>
+        <v>12110000</v>
       </c>
       <c r="G61" t="n">
-        <v>55.16499999999995</v>
+        <v>54.45333333333338</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2763,10 +2545,10 @@
         <v>55.3</v>
       </c>
       <c r="F62" t="n">
-        <v>348.1249</v>
+        <v>2592000</v>
       </c>
       <c r="G62" t="n">
-        <v>55.20499999999995</v>
+        <v>54.47000000000005</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2798,10 +2580,10 @@
         <v>55.3</v>
       </c>
       <c r="F63" t="n">
-        <v>13200000</v>
+        <v>348.1249</v>
       </c>
       <c r="G63" t="n">
-        <v>55.23999999999995</v>
+        <v>54.48000000000005</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2833,10 +2615,10 @@
         <v>55.3</v>
       </c>
       <c r="F64" t="n">
-        <v>20722000</v>
+        <v>13200000</v>
       </c>
       <c r="G64" t="n">
-        <v>55.26999999999995</v>
+        <v>54.50166666666673</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2868,10 +2650,10 @@
         <v>55.3</v>
       </c>
       <c r="F65" t="n">
-        <v>20318000</v>
+        <v>20722000</v>
       </c>
       <c r="G65" t="n">
-        <v>55.28999999999994</v>
+        <v>54.52666666666673</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2903,10 +2685,10 @@
         <v>55.3</v>
       </c>
       <c r="F66" t="n">
-        <v>20000000</v>
+        <v>20318000</v>
       </c>
       <c r="G66" t="n">
-        <v>55.29999999999994</v>
+        <v>54.55166666666673</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2938,10 +2720,10 @@
         <v>55.3</v>
       </c>
       <c r="F67" t="n">
-        <v>20960000</v>
+        <v>20000000</v>
       </c>
       <c r="G67" t="n">
-        <v>55.29999999999994</v>
+        <v>54.57666666666672</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2973,10 +2755,10 @@
         <v>55.3</v>
       </c>
       <c r="F68" t="n">
-        <v>21360000</v>
+        <v>20960000</v>
       </c>
       <c r="G68" t="n">
-        <v>55.29999999999994</v>
+        <v>54.59833333333339</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3005,13 +2787,13 @@
         <v>55.3</v>
       </c>
       <c r="E69" t="n">
-        <v>54.7</v>
+        <v>55.3</v>
       </c>
       <c r="F69" t="n">
-        <v>20320656</v>
+        <v>21360000</v>
       </c>
       <c r="G69" t="n">
-        <v>55.29999999999994</v>
+        <v>54.62000000000007</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3040,13 +2822,13 @@
         <v>55.3</v>
       </c>
       <c r="E70" t="n">
-        <v>55.3</v>
+        <v>54.7</v>
       </c>
       <c r="F70" t="n">
-        <v>17122000</v>
+        <v>20320656</v>
       </c>
       <c r="G70" t="n">
-        <v>55.29999999999994</v>
+        <v>54.64000000000007</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3078,10 +2860,10 @@
         <v>55.3</v>
       </c>
       <c r="F71" t="n">
-        <v>9520000</v>
+        <v>17122000</v>
       </c>
       <c r="G71" t="n">
-        <v>55.29999999999994</v>
+        <v>54.66000000000007</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3107,16 +2889,16 @@
         <v>55.3</v>
       </c>
       <c r="D72" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="E72" t="n">
         <v>55.3</v>
       </c>
       <c r="F72" t="n">
-        <v>18131114.7657</v>
+        <v>9520000</v>
       </c>
       <c r="G72" t="n">
-        <v>55.29999999999994</v>
+        <v>54.68000000000008</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3148,10 +2930,10 @@
         <v>55.3</v>
       </c>
       <c r="F73" t="n">
-        <v>17920010</v>
+        <v>18131114.7657</v>
       </c>
       <c r="G73" t="n">
-        <v>55.29999999999994</v>
+        <v>54.69500000000008</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3171,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="C74" t="n">
-        <v>55.7</v>
+        <v>55.3</v>
       </c>
       <c r="D74" t="n">
-        <v>55.7</v>
+        <v>55.5</v>
       </c>
       <c r="E74" t="n">
         <v>55.3</v>
       </c>
       <c r="F74" t="n">
-        <v>275847.5841</v>
+        <v>17920010</v>
       </c>
       <c r="G74" t="n">
-        <v>55.30499999999995</v>
+        <v>54.71166666666674</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3206,7 +2988,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="C75" t="n">
         <v>55.7</v>
@@ -3215,13 +2997,13 @@
         <v>55.7</v>
       </c>
       <c r="E75" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="F75" t="n">
-        <v>2016</v>
+        <v>275847.5841</v>
       </c>
       <c r="G75" t="n">
-        <v>55.31499999999996</v>
+        <v>54.73500000000008</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3244,19 +3026,19 @@
         <v>55.5</v>
       </c>
       <c r="C76" t="n">
-        <v>55.5</v>
+        <v>55.7</v>
       </c>
       <c r="D76" t="n">
-        <v>55.5</v>
+        <v>55.7</v>
       </c>
       <c r="E76" t="n">
         <v>55.5</v>
       </c>
       <c r="F76" t="n">
-        <v>7396.0206</v>
+        <v>2016</v>
       </c>
       <c r="G76" t="n">
-        <v>55.32499999999995</v>
+        <v>54.76000000000008</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3288,10 +3070,10 @@
         <v>55.5</v>
       </c>
       <c r="F77" t="n">
-        <v>500</v>
+        <v>7396.0206</v>
       </c>
       <c r="G77" t="n">
-        <v>55.33499999999996</v>
+        <v>54.77833333333341</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3311,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="C78" t="n">
-        <v>55.7</v>
+        <v>55.5</v>
       </c>
       <c r="D78" t="n">
-        <v>55.7</v>
+        <v>55.5</v>
       </c>
       <c r="E78" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="F78" t="n">
-        <v>19727.2861</v>
+        <v>500</v>
       </c>
       <c r="G78" t="n">
-        <v>55.33999999999996</v>
+        <v>54.79666666666674</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3346,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>55.8</v>
+        <v>55.4</v>
       </c>
       <c r="C79" t="n">
-        <v>55.4</v>
+        <v>55.7</v>
       </c>
       <c r="D79" t="n">
-        <v>55.8</v>
+        <v>55.7</v>
       </c>
       <c r="E79" t="n">
         <v>55.4</v>
       </c>
       <c r="F79" t="n">
-        <v>17691.5734</v>
+        <v>19727.2861</v>
       </c>
       <c r="G79" t="n">
-        <v>55.36499999999997</v>
+        <v>54.8183333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3381,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="C80" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="D80" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="E80" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="F80" t="n">
-        <v>5791.92754919</v>
+        <v>17691.5734</v>
       </c>
       <c r="G80" t="n">
-        <v>55.36999999999997</v>
+        <v>54.83666666666673</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3419,19 +3201,19 @@
         <v>55.4</v>
       </c>
       <c r="C81" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="D81" t="n">
-        <v>55.4</v>
+        <v>55.9</v>
       </c>
       <c r="E81" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="F81" t="n">
-        <v>5151100</v>
+        <v>5791.92754919</v>
       </c>
       <c r="G81" t="n">
-        <v>55.37499999999998</v>
+        <v>54.85666666666673</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3454,19 +3236,19 @@
         <v>55.4</v>
       </c>
       <c r="C82" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="D82" t="n">
         <v>55.4</v>
       </c>
       <c r="E82" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="F82" t="n">
-        <v>5800610</v>
+        <v>5151100</v>
       </c>
       <c r="G82" t="n">
-        <v>55.37999999999998</v>
+        <v>54.88000000000007</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3486,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="C83" t="n">
         <v>55.3</v>
       </c>
       <c r="D83" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="E83" t="n">
         <v>55.3</v>
       </c>
       <c r="F83" t="n">
-        <v>4002969.5836</v>
+        <v>5800610</v>
       </c>
       <c r="G83" t="n">
-        <v>55.37999999999998</v>
+        <v>54.89666666666674</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3533,10 +3315,10 @@
         <v>55.3</v>
       </c>
       <c r="F84" t="n">
-        <v>7080011</v>
+        <v>4002969.5836</v>
       </c>
       <c r="G84" t="n">
-        <v>55.37999999999998</v>
+        <v>54.91500000000008</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3568,10 +3350,10 @@
         <v>55.3</v>
       </c>
       <c r="F85" t="n">
-        <v>17225000</v>
+        <v>7080011</v>
       </c>
       <c r="G85" t="n">
-        <v>55.37999999999998</v>
+        <v>54.93333333333342</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3603,10 +3385,10 @@
         <v>55.3</v>
       </c>
       <c r="F86" t="n">
-        <v>17229083.9837</v>
+        <v>17225000</v>
       </c>
       <c r="G86" t="n">
-        <v>55.37999999999998</v>
+        <v>54.95666666666675</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3638,10 +3420,10 @@
         <v>55.3</v>
       </c>
       <c r="F87" t="n">
-        <v>1755000</v>
+        <v>17229083.9837</v>
       </c>
       <c r="G87" t="n">
-        <v>55.37999999999998</v>
+        <v>54.97500000000009</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3673,10 +3455,10 @@
         <v>55.3</v>
       </c>
       <c r="F88" t="n">
-        <v>10996.1663</v>
+        <v>1755000</v>
       </c>
       <c r="G88" t="n">
-        <v>55.37999999999998</v>
+        <v>54.99333333333343</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3696,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="C89" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="D89" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="E89" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="F89" t="n">
-        <v>17053.9496</v>
+        <v>10996.1663</v>
       </c>
       <c r="G89" t="n">
-        <v>55.37499999999999</v>
+        <v>55.01333333333343</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3743,10 +3525,10 @@
         <v>55.2</v>
       </c>
       <c r="F90" t="n">
-        <v>13205000</v>
+        <v>17053.9496</v>
       </c>
       <c r="G90" t="n">
-        <v>55.36999999999999</v>
+        <v>55.03166666666677</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3778,10 +3560,10 @@
         <v>55.2</v>
       </c>
       <c r="F91" t="n">
-        <v>22440000</v>
+        <v>13205000</v>
       </c>
       <c r="G91" t="n">
-        <v>55.36499999999999</v>
+        <v>55.0500000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3813,10 +3595,10 @@
         <v>55.2</v>
       </c>
       <c r="F92" t="n">
-        <v>22610000</v>
+        <v>22440000</v>
       </c>
       <c r="G92" t="n">
-        <v>55.36</v>
+        <v>55.07000000000009</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3848,10 +3630,10 @@
         <v>55.2</v>
       </c>
       <c r="F93" t="n">
-        <v>22780000</v>
+        <v>22610000</v>
       </c>
       <c r="G93" t="n">
-        <v>55.355</v>
+        <v>55.09166666666676</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3880,13 +3662,13 @@
         <v>55.2</v>
       </c>
       <c r="E94" t="n">
-        <v>54.7</v>
+        <v>55.2</v>
       </c>
       <c r="F94" t="n">
-        <v>22534355.9675</v>
+        <v>22780000</v>
       </c>
       <c r="G94" t="n">
-        <v>55.34500000000001</v>
+        <v>55.11500000000009</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3915,13 +3697,13 @@
         <v>55.2</v>
       </c>
       <c r="E95" t="n">
-        <v>55.2</v>
+        <v>54.7</v>
       </c>
       <c r="F95" t="n">
-        <v>22437218.085</v>
+        <v>22534355.9675</v>
       </c>
       <c r="G95" t="n">
-        <v>55.33000000000001</v>
+        <v>55.13666666666675</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3953,10 +3735,10 @@
         <v>55.2</v>
       </c>
       <c r="F96" t="n">
-        <v>22185000</v>
+        <v>22437218.085</v>
       </c>
       <c r="G96" t="n">
-        <v>55.31500000000001</v>
+        <v>55.15833333333341</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3988,10 +3770,10 @@
         <v>55.2</v>
       </c>
       <c r="F97" t="n">
-        <v>22697781.915</v>
+        <v>22185000</v>
       </c>
       <c r="G97" t="n">
-        <v>55.30000000000001</v>
+        <v>55.17833333333341</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4023,10 +3805,10 @@
         <v>55.2</v>
       </c>
       <c r="F98" t="n">
-        <v>21419428.085</v>
+        <v>22697781.915</v>
       </c>
       <c r="G98" t="n">
-        <v>55.29000000000001</v>
+        <v>55.1983333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4058,10 +3840,10 @@
         <v>55.2</v>
       </c>
       <c r="F99" t="n">
-        <v>21250000</v>
+        <v>21419428.085</v>
       </c>
       <c r="G99" t="n">
-        <v>55.26000000000001</v>
+        <v>55.2183333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4093,10 +3875,10 @@
         <v>55.2</v>
       </c>
       <c r="F100" t="n">
-        <v>22527210</v>
+        <v>21250000</v>
       </c>
       <c r="G100" t="n">
-        <v>55.25000000000001</v>
+        <v>55.23500000000006</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4128,10 +3910,10 @@
         <v>55.2</v>
       </c>
       <c r="F101" t="n">
-        <v>22610000</v>
+        <v>22527210</v>
       </c>
       <c r="G101" t="n">
-        <v>55.24000000000001</v>
+        <v>55.25166666666674</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4163,19 +3945,23 @@
         <v>55.2</v>
       </c>
       <c r="F102" t="n">
-        <v>23035000</v>
+        <v>22610000</v>
       </c>
       <c r="G102" t="n">
-        <v>55.23</v>
+        <v>55.26666666666673</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K102" t="n">
+        <v>55.2</v>
+      </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
@@ -4198,10 +3984,10 @@
         <v>55.2</v>
       </c>
       <c r="F103" t="n">
-        <v>23120000</v>
+        <v>23035000</v>
       </c>
       <c r="G103" t="n">
-        <v>55.22500000000001</v>
+        <v>55.27833333333339</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4210,8 +3996,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4233,10 +4025,10 @@
         <v>55.2</v>
       </c>
       <c r="F104" t="n">
-        <v>22695000</v>
+        <v>23120000</v>
       </c>
       <c r="G104" t="n">
-        <v>55.22000000000001</v>
+        <v>55.28833333333339</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4245,8 +4037,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4268,10 +4066,10 @@
         <v>55.2</v>
       </c>
       <c r="F105" t="n">
-        <v>22100000</v>
+        <v>22695000</v>
       </c>
       <c r="G105" t="n">
-        <v>55.21500000000002</v>
+        <v>55.29666666666672</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4303,10 +4101,10 @@
         <v>55.2</v>
       </c>
       <c r="F106" t="n">
-        <v>13260000</v>
+        <v>22100000</v>
       </c>
       <c r="G106" t="n">
-        <v>55.21000000000002</v>
+        <v>55.30166666666672</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4338,10 +4136,10 @@
         <v>55.2</v>
       </c>
       <c r="F107" t="n">
-        <v>800000</v>
+        <v>13260000</v>
       </c>
       <c r="G107" t="n">
-        <v>55.20500000000003</v>
+        <v>55.30000000000005</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4373,10 +4171,10 @@
         <v>55.2</v>
       </c>
       <c r="F108" t="n">
-        <v>910000</v>
+        <v>800000</v>
       </c>
       <c r="G108" t="n">
-        <v>55.20000000000003</v>
+        <v>55.29833333333337</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4396,22 +4194,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="C109" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="D109" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="E109" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="F109" t="n">
-        <v>12040000</v>
+        <v>910000</v>
       </c>
       <c r="G109" t="n">
-        <v>55.20500000000003</v>
+        <v>55.2966666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4443,19 +4241,23 @@
         <v>55.3</v>
       </c>
       <c r="F110" t="n">
-        <v>18830000</v>
+        <v>12040000</v>
       </c>
       <c r="G110" t="n">
-        <v>55.21000000000002</v>
+        <v>55.2966666666667</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K110" t="n">
+        <v>55.2</v>
+      </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
@@ -4478,10 +4280,10 @@
         <v>55.3</v>
       </c>
       <c r="F111" t="n">
-        <v>18706302.7477</v>
+        <v>18830000</v>
       </c>
       <c r="G111" t="n">
-        <v>55.21500000000002</v>
+        <v>55.2966666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4490,8 +4292,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4513,10 +4321,10 @@
         <v>55.3</v>
       </c>
       <c r="F112" t="n">
-        <v>18884510.4326</v>
+        <v>18706302.7477</v>
       </c>
       <c r="G112" t="n">
-        <v>55.22000000000001</v>
+        <v>55.2966666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4525,8 +4333,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4548,10 +4362,10 @@
         <v>55.3</v>
       </c>
       <c r="F113" t="n">
-        <v>18550000</v>
+        <v>18884510.4326</v>
       </c>
       <c r="G113" t="n">
-        <v>55.22500000000001</v>
+        <v>55.2966666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4583,10 +4397,10 @@
         <v>55.3</v>
       </c>
       <c r="F114" t="n">
-        <v>85489.5674</v>
+        <v>18550000</v>
       </c>
       <c r="G114" t="n">
-        <v>55.23</v>
+        <v>55.2966666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4606,22 +4420,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="C115" t="n">
-        <v>55.1</v>
+        <v>55.3</v>
       </c>
       <c r="D115" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="E115" t="n">
-        <v>55.1</v>
+        <v>55.3</v>
       </c>
       <c r="F115" t="n">
-        <v>15804.2797</v>
+        <v>85489.5674</v>
       </c>
       <c r="G115" t="n">
-        <v>55.23</v>
+        <v>55.2966666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4644,19 +4458,19 @@
         <v>55.2</v>
       </c>
       <c r="C116" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="D116" t="n">
         <v>55.2</v>
       </c>
       <c r="E116" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="F116" t="n">
-        <v>10</v>
+        <v>15804.2797</v>
       </c>
       <c r="G116" t="n">
-        <v>55.23</v>
+        <v>55.29333333333336</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4691,7 +4505,7 @@
         <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>55.23</v>
+        <v>55.29166666666669</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4723,10 +4537,10 @@
         <v>55.2</v>
       </c>
       <c r="F118" t="n">
-        <v>4099.5923</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>55.23</v>
+        <v>55.29000000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4746,22 +4560,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="C119" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="D119" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="E119" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="F119" t="n">
-        <v>8200</v>
+        <v>4099.5923</v>
       </c>
       <c r="G119" t="n">
-        <v>55.225</v>
+        <v>55.28833333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4793,19 +4607,23 @@
         <v>55.1</v>
       </c>
       <c r="F120" t="n">
-        <v>4992.3933</v>
+        <v>8200</v>
       </c>
       <c r="G120" t="n">
-        <v>55.21999999999999</v>
+        <v>55.285</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K120" t="n">
+        <v>55.2</v>
+      </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
@@ -4828,10 +4646,10 @@
         <v>55.1</v>
       </c>
       <c r="F121" t="n">
-        <v>215.8062</v>
+        <v>4992.3933</v>
       </c>
       <c r="G121" t="n">
-        <v>55.21499999999999</v>
+        <v>55.28166666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4840,8 +4658,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4851,22 +4675,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>54.9</v>
+        <v>55.1</v>
       </c>
       <c r="C122" t="n">
-        <v>54.9</v>
+        <v>55.1</v>
       </c>
       <c r="D122" t="n">
-        <v>54.9</v>
+        <v>55.1</v>
       </c>
       <c r="E122" t="n">
-        <v>54.9</v>
+        <v>55.1</v>
       </c>
       <c r="F122" t="n">
-        <v>6512.9999</v>
+        <v>215.8062</v>
       </c>
       <c r="G122" t="n">
-        <v>55.19999999999999</v>
+        <v>55.27833333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4875,8 +4699,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4898,10 +4728,10 @@
         <v>54.9</v>
       </c>
       <c r="F123" t="n">
-        <v>10591.2623</v>
+        <v>6512.9999</v>
       </c>
       <c r="G123" t="n">
-        <v>55.18499999999999</v>
+        <v>55.27166666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4921,22 +4751,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>54.7</v>
+        <v>54.9</v>
       </c>
       <c r="C124" t="n">
-        <v>54.7</v>
+        <v>54.9</v>
       </c>
       <c r="D124" t="n">
-        <v>54.7</v>
+        <v>54.9</v>
       </c>
       <c r="E124" t="n">
-        <v>54.7</v>
+        <v>54.9</v>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>10591.2623</v>
       </c>
       <c r="G124" t="n">
-        <v>55.15999999999999</v>
+        <v>55.26499999999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4956,22 +4786,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="C125" t="n">
-        <v>55.1</v>
+        <v>54.7</v>
       </c>
       <c r="D125" t="n">
-        <v>55.1</v>
+        <v>54.7</v>
       </c>
       <c r="E125" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="F125" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>55.13999999999999</v>
+        <v>55.25499999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4991,22 +4821,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C126" t="n">
         <v>55.1</v>
       </c>
-      <c r="C126" t="n">
-        <v>55.2</v>
-      </c>
       <c r="D126" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="E126" t="n">
-        <v>55.1</v>
+        <v>54.8</v>
       </c>
       <c r="F126" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G126" t="n">
-        <v>55.13499999999998</v>
+        <v>55.25166666666665</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5026,7 +4856,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="C127" t="n">
         <v>55.2</v>
@@ -5035,13 +4865,13 @@
         <v>55.2</v>
       </c>
       <c r="E127" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="F127" t="n">
-        <v>100.9963</v>
+        <v>21</v>
       </c>
       <c r="G127" t="n">
-        <v>55.13499999999998</v>
+        <v>55.24999999999998</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5061,22 +4891,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>54.7</v>
+        <v>55.2</v>
       </c>
       <c r="C128" t="n">
-        <v>54.4</v>
+        <v>55.2</v>
       </c>
       <c r="D128" t="n">
-        <v>54.7</v>
+        <v>55.2</v>
       </c>
       <c r="E128" t="n">
-        <v>54.4</v>
+        <v>55.2</v>
       </c>
       <c r="F128" t="n">
-        <v>195231.3525</v>
+        <v>100.9963</v>
       </c>
       <c r="G128" t="n">
-        <v>55.10999999999998</v>
+        <v>55.24833333333331</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5096,22 +4926,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>55.1</v>
+        <v>54.7</v>
       </c>
       <c r="C129" t="n">
-        <v>55.1</v>
+        <v>54.4</v>
       </c>
       <c r="D129" t="n">
-        <v>55.1</v>
+        <v>54.7</v>
       </c>
       <c r="E129" t="n">
-        <v>55.1</v>
+        <v>54.4</v>
       </c>
       <c r="F129" t="n">
-        <v>1037.7346</v>
+        <v>195231.3525</v>
       </c>
       <c r="G129" t="n">
-        <v>55.09999999999998</v>
+        <v>55.23333333333331</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5143,10 +4973,10 @@
         <v>55.1</v>
       </c>
       <c r="F130" t="n">
-        <v>1117.9999</v>
+        <v>1037.7346</v>
       </c>
       <c r="G130" t="n">
-        <v>55.08999999999997</v>
+        <v>55.22999999999997</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5178,10 +5008,10 @@
         <v>55.1</v>
       </c>
       <c r="F131" t="n">
-        <v>18.1488</v>
+        <v>1117.9999</v>
       </c>
       <c r="G131" t="n">
-        <v>55.07999999999997</v>
+        <v>55.22666666666662</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5201,22 +5031,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>54.7</v>
+        <v>55.1</v>
       </c>
       <c r="C132" t="n">
-        <v>54.7</v>
+        <v>55.1</v>
       </c>
       <c r="D132" t="n">
-        <v>54.7</v>
+        <v>55.1</v>
       </c>
       <c r="E132" t="n">
-        <v>54.7</v>
+        <v>55.1</v>
       </c>
       <c r="F132" t="n">
-        <v>28.0785</v>
+        <v>18.1488</v>
       </c>
       <c r="G132" t="n">
-        <v>55.04999999999998</v>
+        <v>55.22333333333329</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5236,22 +5066,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="C133" t="n">
-        <v>55</v>
+        <v>54.7</v>
       </c>
       <c r="D133" t="n">
-        <v>55.1</v>
+        <v>54.7</v>
       </c>
       <c r="E133" t="n">
-        <v>54</v>
+        <v>54.7</v>
       </c>
       <c r="F133" t="n">
-        <v>196705.5359</v>
+        <v>28.0785</v>
       </c>
       <c r="G133" t="n">
-        <v>55.02499999999998</v>
+        <v>55.21333333333328</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5271,22 +5101,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>55.1</v>
+        <v>54.8</v>
       </c>
       <c r="C134" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="D134" t="n">
         <v>55.1</v>
       </c>
       <c r="E134" t="n">
-        <v>55.1</v>
+        <v>54</v>
       </c>
       <c r="F134" t="n">
-        <v>11968.4837</v>
+        <v>196705.5359</v>
       </c>
       <c r="G134" t="n">
-        <v>55.01499999999997</v>
+        <v>55.20833333333328</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5318,10 +5148,10 @@
         <v>55.1</v>
       </c>
       <c r="F135" t="n">
-        <v>4469.6501</v>
+        <v>11968.4837</v>
       </c>
       <c r="G135" t="n">
-        <v>55.00999999999997</v>
+        <v>55.19833333333328</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5344,19 +5174,19 @@
         <v>55.1</v>
       </c>
       <c r="C136" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="D136" t="n">
         <v>55.1</v>
       </c>
       <c r="E136" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="F136" t="n">
-        <v>24222.9243</v>
+        <v>4469.6501</v>
       </c>
       <c r="G136" t="n">
-        <v>55.00499999999996</v>
+        <v>55.18833333333328</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5379,19 +5209,19 @@
         <v>55.1</v>
       </c>
       <c r="C137" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="D137" t="n">
         <v>55.1</v>
       </c>
       <c r="E137" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="F137" t="n">
-        <v>11423.6684</v>
+        <v>24222.9243</v>
       </c>
       <c r="G137" t="n">
-        <v>54.99999999999996</v>
+        <v>55.17999999999995</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5423,10 +5253,10 @@
         <v>55.1</v>
       </c>
       <c r="F138" t="n">
-        <v>7468</v>
+        <v>11423.6684</v>
       </c>
       <c r="G138" t="n">
-        <v>54.99499999999995</v>
+        <v>55.17333333333328</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5446,22 +5276,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="C139" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="D139" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="E139" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="F139" t="n">
-        <v>9000</v>
+        <v>7468</v>
       </c>
       <c r="G139" t="n">
-        <v>54.99999999999996</v>
+        <v>55.16333333333328</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5493,10 +5323,10 @@
         <v>55.2</v>
       </c>
       <c r="F140" t="n">
-        <v>15500</v>
+        <v>9000</v>
       </c>
       <c r="G140" t="n">
-        <v>55.00499999999996</v>
+        <v>55.15999999999995</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5528,10 +5358,10 @@
         <v>55.2</v>
       </c>
       <c r="F141" t="n">
-        <v>1012</v>
+        <v>15500</v>
       </c>
       <c r="G141" t="n">
-        <v>55.00999999999997</v>
+        <v>55.15833333333327</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5554,19 +5384,19 @@
         <v>55.2</v>
       </c>
       <c r="C142" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="D142" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="E142" t="n">
         <v>55.2</v>
       </c>
       <c r="F142" t="n">
-        <v>14606.94339656</v>
+        <v>1012</v>
       </c>
       <c r="G142" t="n">
-        <v>55.02499999999996</v>
+        <v>55.15499999999994</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5586,22 +5416,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="C143" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="D143" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="E143" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="F143" t="n">
-        <v>101642.2227</v>
+        <v>14606.94339656</v>
       </c>
       <c r="G143" t="n">
-        <v>55.04499999999996</v>
+        <v>55.15499999999994</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5621,7 +5451,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="C144" t="n">
         <v>55.4</v>
@@ -5630,13 +5460,13 @@
         <v>55.4</v>
       </c>
       <c r="E144" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="F144" t="n">
-        <v>238</v>
+        <v>101642.2227</v>
       </c>
       <c r="G144" t="n">
-        <v>55.07999999999996</v>
+        <v>55.1566666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5668,10 +5498,10 @@
         <v>55.4</v>
       </c>
       <c r="F145" t="n">
-        <v>4792.0275</v>
+        <v>238</v>
       </c>
       <c r="G145" t="n">
-        <v>55.10999999999997</v>
+        <v>55.15833333333327</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5703,10 +5533,10 @@
         <v>55.4</v>
       </c>
       <c r="F146" t="n">
-        <v>620.2224</v>
+        <v>4792.0275</v>
       </c>
       <c r="G146" t="n">
-        <v>55.12499999999998</v>
+        <v>55.15999999999993</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5738,10 +5568,10 @@
         <v>55.4</v>
       </c>
       <c r="F147" t="n">
-        <v>582.6531</v>
+        <v>620.2224</v>
       </c>
       <c r="G147" t="n">
-        <v>55.13499999999998</v>
+        <v>55.1616666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5773,10 +5603,10 @@
         <v>55.4</v>
       </c>
       <c r="F148" t="n">
-        <v>17035.5945</v>
+        <v>582.6531</v>
       </c>
       <c r="G148" t="n">
-        <v>55.16999999999998</v>
+        <v>55.16333333333326</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5808,10 +5638,10 @@
         <v>55.4</v>
       </c>
       <c r="F149" t="n">
-        <v>7472.8171</v>
+        <v>17035.5945</v>
       </c>
       <c r="G149" t="n">
-        <v>55.18499999999999</v>
+        <v>55.16499999999993</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5843,10 +5673,10 @@
         <v>55.4</v>
       </c>
       <c r="F150" t="n">
-        <v>2998.8516</v>
+        <v>7472.8171</v>
       </c>
       <c r="G150" t="n">
-        <v>55.2</v>
+        <v>55.16833333333327</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5866,22 +5696,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="C151" t="n">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="D151" t="n">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="E151" t="n">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="F151" t="n">
-        <v>10</v>
+        <v>2998.8516</v>
       </c>
       <c r="G151" t="n">
-        <v>55.19000000000001</v>
+        <v>55.1716666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5901,22 +5731,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="C152" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="D152" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="E152" t="n">
-        <v>55.2</v>
+        <v>54.9</v>
       </c>
       <c r="F152" t="n">
-        <v>10006.045</v>
+        <v>10</v>
       </c>
       <c r="G152" t="n">
-        <v>55.22000000000001</v>
+        <v>55.16666666666661</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5945,13 +5775,13 @@
         <v>55.3</v>
       </c>
       <c r="E153" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="F153" t="n">
-        <v>8444.523499999999</v>
+        <v>10006.045</v>
       </c>
       <c r="G153" t="n">
-        <v>55.245</v>
+        <v>55.16833333333328</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5983,10 +5813,10 @@
         <v>55.3</v>
       </c>
       <c r="F154" t="n">
-        <v>686.9689</v>
+        <v>8444.523499999999</v>
       </c>
       <c r="G154" t="n">
-        <v>55.25500000000001</v>
+        <v>55.16999999999995</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6006,7 +5836,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="C155" t="n">
         <v>55.3</v>
@@ -6015,13 +5845,13 @@
         <v>55.3</v>
       </c>
       <c r="E155" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="F155" t="n">
-        <v>4047.1793</v>
+        <v>686.9689</v>
       </c>
       <c r="G155" t="n">
-        <v>55.26000000000001</v>
+        <v>55.17166666666662</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6041,7 +5871,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="C156" t="n">
         <v>55.3</v>
@@ -6050,13 +5880,13 @@
         <v>55.3</v>
       </c>
       <c r="E156" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="F156" t="n">
-        <v>823.1105</v>
+        <v>4047.1793</v>
       </c>
       <c r="G156" t="n">
-        <v>55.27000000000002</v>
+        <v>55.1733333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6088,10 +5918,10 @@
         <v>55.3</v>
       </c>
       <c r="F157" t="n">
-        <v>8900</v>
+        <v>823.1105</v>
       </c>
       <c r="G157" t="n">
-        <v>55.28000000000002</v>
+        <v>55.17499999999997</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6123,10 +5953,10 @@
         <v>55.3</v>
       </c>
       <c r="F158" t="n">
-        <v>8378.0131</v>
+        <v>8900</v>
       </c>
       <c r="G158" t="n">
-        <v>55.29000000000002</v>
+        <v>55.17666666666664</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6158,10 +5988,10 @@
         <v>55.3</v>
       </c>
       <c r="F159" t="n">
-        <v>3000.0002</v>
+        <v>8378.0131</v>
       </c>
       <c r="G159" t="n">
-        <v>55.29500000000002</v>
+        <v>55.17833333333331</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6193,10 +6023,10 @@
         <v>55.3</v>
       </c>
       <c r="F160" t="n">
-        <v>999.9999</v>
+        <v>3000.0002</v>
       </c>
       <c r="G160" t="n">
-        <v>55.30000000000001</v>
+        <v>55.17999999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6228,10 +6058,10 @@
         <v>55.3</v>
       </c>
       <c r="F161" t="n">
-        <v>46930.8</v>
+        <v>999.9999</v>
       </c>
       <c r="G161" t="n">
-        <v>55.30500000000001</v>
+        <v>55.18166666666666</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6251,22 +6081,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>54.8</v>
+        <v>55.3</v>
       </c>
       <c r="C162" t="n">
-        <v>54.8</v>
+        <v>55.3</v>
       </c>
       <c r="D162" t="n">
-        <v>54.8</v>
+        <v>55.3</v>
       </c>
       <c r="E162" t="n">
-        <v>54.8</v>
+        <v>55.3</v>
       </c>
       <c r="F162" t="n">
-        <v>147.7784</v>
+        <v>46930.8</v>
       </c>
       <c r="G162" t="n">
-        <v>55.285</v>
+        <v>55.18333333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6286,22 +6116,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="C163" t="n">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="D163" t="n">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="E163" t="n">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="F163" t="n">
-        <v>31972.4215</v>
+        <v>147.7784</v>
       </c>
       <c r="G163" t="n">
-        <v>55.285</v>
+        <v>55.17666666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6324,19 +6154,19 @@
         <v>55.3</v>
       </c>
       <c r="C164" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="D164" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="E164" t="n">
         <v>55.3</v>
       </c>
       <c r="F164" t="n">
-        <v>122988.5068</v>
+        <v>31972.4215</v>
       </c>
       <c r="G164" t="n">
-        <v>55.27999999999999</v>
+        <v>55.17833333333335</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6356,22 +6186,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>55.6</v>
+        <v>55.3</v>
       </c>
       <c r="C165" t="n">
-        <v>55.7</v>
+        <v>55.5</v>
       </c>
       <c r="D165" t="n">
-        <v>55.7</v>
+        <v>55.5</v>
       </c>
       <c r="E165" t="n">
-        <v>55.6</v>
+        <v>55.3</v>
       </c>
       <c r="F165" t="n">
-        <v>873.2274</v>
+        <v>122988.5068</v>
       </c>
       <c r="G165" t="n">
-        <v>55.28999999999998</v>
+        <v>55.18333333333335</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6391,22 +6221,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C166" t="n">
         <v>55.7</v>
       </c>
-      <c r="C166" t="n">
-        <v>55.9</v>
-      </c>
       <c r="D166" t="n">
-        <v>55.9</v>
+        <v>55.7</v>
       </c>
       <c r="E166" t="n">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="F166" t="n">
-        <v>1792.94660787</v>
+        <v>873.2274</v>
       </c>
       <c r="G166" t="n">
-        <v>55.30499999999999</v>
+        <v>55.19166666666668</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6426,7 +6256,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>55.9</v>
+        <v>55.7</v>
       </c>
       <c r="C167" t="n">
         <v>55.9</v>
@@ -6435,13 +6265,13 @@
         <v>55.9</v>
       </c>
       <c r="E167" t="n">
-        <v>55.9</v>
+        <v>55.7</v>
       </c>
       <c r="F167" t="n">
-        <v>10036.3242</v>
+        <v>1792.94660787</v>
       </c>
       <c r="G167" t="n">
-        <v>55.32999999999998</v>
+        <v>55.20333333333335</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6461,22 +6291,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>56</v>
+        <v>55.9</v>
       </c>
       <c r="C168" t="n">
-        <v>56</v>
+        <v>55.9</v>
       </c>
       <c r="D168" t="n">
-        <v>56</v>
+        <v>55.9</v>
       </c>
       <c r="E168" t="n">
-        <v>56</v>
+        <v>55.9</v>
       </c>
       <c r="F168" t="n">
-        <v>1828.0915</v>
+        <v>10036.3242</v>
       </c>
       <c r="G168" t="n">
-        <v>55.35999999999998</v>
+        <v>55.21500000000002</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6496,22 +6326,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>56.3</v>
+        <v>56</v>
       </c>
       <c r="C169" t="n">
-        <v>56.5</v>
+        <v>56</v>
       </c>
       <c r="D169" t="n">
-        <v>56.5</v>
+        <v>56</v>
       </c>
       <c r="E169" t="n">
-        <v>56.3</v>
+        <v>56</v>
       </c>
       <c r="F169" t="n">
-        <v>5168.7194</v>
+        <v>1828.0915</v>
       </c>
       <c r="G169" t="n">
-        <v>55.40499999999997</v>
+        <v>55.22833333333336</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6531,22 +6361,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>56.4</v>
+        <v>56.3</v>
       </c>
       <c r="C170" t="n">
-        <v>56.4</v>
+        <v>56.5</v>
       </c>
       <c r="D170" t="n">
-        <v>56.4</v>
+        <v>56.5</v>
       </c>
       <c r="E170" t="n">
-        <v>56.4</v>
+        <v>56.3</v>
       </c>
       <c r="F170" t="n">
-        <v>17857.2629</v>
+        <v>5168.7194</v>
       </c>
       <c r="G170" t="n">
-        <v>55.45499999999997</v>
+        <v>55.24833333333336</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6578,10 +6408,10 @@
         <v>56.4</v>
       </c>
       <c r="F171" t="n">
-        <v>4023.3522</v>
+        <v>17857.2629</v>
       </c>
       <c r="G171" t="n">
-        <v>55.52999999999997</v>
+        <v>55.26666666666669</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6613,10 +6443,10 @@
         <v>56.4</v>
       </c>
       <c r="F172" t="n">
-        <v>1964.0091</v>
+        <v>4023.3522</v>
       </c>
       <c r="G172" t="n">
-        <v>55.58499999999998</v>
+        <v>55.28500000000002</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6639,25 +6469,25 @@
         <v>56.4</v>
       </c>
       <c r="C173" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
       <c r="D173" t="n">
         <v>56.4</v>
       </c>
       <c r="E173" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
       <c r="F173" t="n">
-        <v>5029.628</v>
+        <v>1964.0091</v>
       </c>
       <c r="G173" t="n">
-        <v>55.63999999999999</v>
+        <v>55.30333333333336</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
@@ -6671,28 +6501,28 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>56.3</v>
+        <v>56.4</v>
       </c>
       <c r="C174" t="n">
-        <v>56.4</v>
+        <v>56</v>
       </c>
       <c r="D174" t="n">
         <v>56.4</v>
       </c>
       <c r="E174" t="n">
-        <v>56.3</v>
+        <v>56</v>
       </c>
       <c r="F174" t="n">
-        <v>1220</v>
+        <v>5029.628</v>
       </c>
       <c r="G174" t="n">
-        <v>55.68999999999998</v>
+        <v>55.31500000000002</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
@@ -6706,7 +6536,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>56.4</v>
+        <v>56.3</v>
       </c>
       <c r="C175" t="n">
         <v>56.4</v>
@@ -6715,19 +6545,19 @@
         <v>56.4</v>
       </c>
       <c r="E175" t="n">
-        <v>56.4</v>
+        <v>56.3</v>
       </c>
       <c r="F175" t="n">
-        <v>340.394</v>
+        <v>1220</v>
       </c>
       <c r="G175" t="n">
-        <v>55.74999999999999</v>
+        <v>55.33333333333335</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
@@ -6753,16 +6583,16 @@
         <v>56.4</v>
       </c>
       <c r="F176" t="n">
-        <v>300.26</v>
+        <v>340.394</v>
       </c>
       <c r="G176" t="n">
-        <v>55.80499999999999</v>
+        <v>55.35500000000002</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
@@ -6788,16 +6618,16 @@
         <v>56.4</v>
       </c>
       <c r="F177" t="n">
-        <v>1400.26</v>
+        <v>300.26</v>
       </c>
       <c r="G177" t="n">
-        <v>55.86</v>
+        <v>55.37500000000002</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -6823,16 +6653,16 @@
         <v>56.4</v>
       </c>
       <c r="F178" t="n">
-        <v>110.13</v>
+        <v>1400.26</v>
       </c>
       <c r="G178" t="n">
-        <v>55.91500000000001</v>
+        <v>55.39500000000002</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -6846,28 +6676,28 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>55.9</v>
+        <v>56.4</v>
       </c>
       <c r="C179" t="n">
-        <v>55.8</v>
+        <v>56.4</v>
       </c>
       <c r="D179" t="n">
-        <v>55.9</v>
+        <v>56.4</v>
       </c>
       <c r="E179" t="n">
-        <v>55.8</v>
+        <v>56.4</v>
       </c>
       <c r="F179" t="n">
-        <v>15226.0158</v>
+        <v>110.13</v>
       </c>
       <c r="G179" t="n">
-        <v>55.94500000000001</v>
+        <v>55.41500000000003</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
@@ -6881,22 +6711,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>55.8</v>
+        <v>55.9</v>
       </c>
       <c r="C180" t="n">
         <v>55.8</v>
       </c>
       <c r="D180" t="n">
-        <v>55.8</v>
+        <v>55.9</v>
       </c>
       <c r="E180" t="n">
         <v>55.8</v>
       </c>
       <c r="F180" t="n">
-        <v>150.7178</v>
+        <v>15226.0158</v>
       </c>
       <c r="G180" t="n">
-        <v>55.97000000000001</v>
+        <v>55.4266666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6928,10 +6758,10 @@
         <v>55.8</v>
       </c>
       <c r="F181" t="n">
-        <v>2000</v>
+        <v>150.7178</v>
       </c>
       <c r="G181" t="n">
-        <v>55.99500000000002</v>
+        <v>55.43833333333338</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6954,19 +6784,19 @@
         <v>55.8</v>
       </c>
       <c r="C182" t="n">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="D182" t="n">
         <v>55.8</v>
       </c>
       <c r="E182" t="n">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="F182" t="n">
-        <v>26275.8025</v>
+        <v>2000</v>
       </c>
       <c r="G182" t="n">
-        <v>56.04500000000002</v>
+        <v>55.45000000000005</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6986,22 +6816,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="C183" t="n">
         <v>55.7</v>
       </c>
       <c r="D183" t="n">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="E183" t="n">
         <v>55.7</v>
       </c>
       <c r="F183" t="n">
-        <v>719.0528</v>
+        <v>26275.8025</v>
       </c>
       <c r="G183" t="n">
-        <v>56.06500000000002</v>
+        <v>55.46333333333337</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7021,22 +6851,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>55.4</v>
+        <v>55.7</v>
       </c>
       <c r="C184" t="n">
-        <v>55.4</v>
+        <v>55.7</v>
       </c>
       <c r="D184" t="n">
-        <v>55.4</v>
+        <v>55.7</v>
       </c>
       <c r="E184" t="n">
-        <v>55.4</v>
+        <v>55.7</v>
       </c>
       <c r="F184" t="n">
-        <v>500</v>
+        <v>719.0528</v>
       </c>
       <c r="G184" t="n">
-        <v>56.07000000000003</v>
+        <v>55.4766666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7056,22 +6886,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>55</v>
+        <v>55.4</v>
       </c>
       <c r="C185" t="n">
-        <v>55</v>
+        <v>55.4</v>
       </c>
       <c r="D185" t="n">
-        <v>55</v>
+        <v>55.4</v>
       </c>
       <c r="E185" t="n">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="F185" t="n">
-        <v>21107.4131</v>
+        <v>500</v>
       </c>
       <c r="G185" t="n">
-        <v>56.04000000000003</v>
+        <v>55.48833333333337</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7100,13 +6930,13 @@
         <v>55</v>
       </c>
       <c r="E186" t="n">
-        <v>55</v>
+        <v>54.9</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0001</v>
+        <v>21107.4131</v>
       </c>
       <c r="G186" t="n">
-        <v>56.00500000000003</v>
+        <v>55.48666666666671</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7126,22 +6956,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="C187" t="n">
-        <v>55.6</v>
+        <v>55</v>
       </c>
       <c r="D187" t="n">
-        <v>55.6</v>
+        <v>55</v>
       </c>
       <c r="E187" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="F187" t="n">
-        <v>13968</v>
+        <v>0.0001</v>
       </c>
       <c r="G187" t="n">
-        <v>55.96500000000002</v>
+        <v>55.48333333333338</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7161,22 +6991,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="C188" t="n">
-        <v>55.2</v>
+        <v>55.6</v>
       </c>
       <c r="D188" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="E188" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="F188" t="n">
-        <v>471.5007</v>
+        <v>13968</v>
       </c>
       <c r="G188" t="n">
-        <v>55.93500000000002</v>
+        <v>55.49000000000004</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7199,19 +7029,19 @@
         <v>55.4</v>
       </c>
       <c r="C189" t="n">
-        <v>55.4</v>
+        <v>55.2</v>
       </c>
       <c r="D189" t="n">
         <v>55.4</v>
       </c>
       <c r="E189" t="n">
-        <v>55.4</v>
+        <v>55.2</v>
       </c>
       <c r="F189" t="n">
-        <v>545.5333000000001</v>
+        <v>471.5007</v>
       </c>
       <c r="G189" t="n">
-        <v>55.89000000000003</v>
+        <v>55.50333333333337</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7231,22 +7061,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="C190" t="n">
         <v>55.4</v>
       </c>
       <c r="D190" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="E190" t="n">
         <v>55.4</v>
       </c>
       <c r="F190" t="n">
-        <v>2581.2378</v>
+        <v>545.5333000000001</v>
       </c>
       <c r="G190" t="n">
-        <v>55.84500000000003</v>
+        <v>55.50833333333338</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7269,19 +7099,19 @@
         <v>55.5</v>
       </c>
       <c r="C191" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="D191" t="n">
         <v>55.5</v>
       </c>
       <c r="E191" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="F191" t="n">
-        <v>5842.3612</v>
+        <v>2581.2378</v>
       </c>
       <c r="G191" t="n">
-        <v>55.80000000000003</v>
+        <v>55.51333333333339</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7313,10 +7143,10 @@
         <v>55.5</v>
       </c>
       <c r="F192" t="n">
-        <v>5335.9999</v>
+        <v>5842.3612</v>
       </c>
       <c r="G192" t="n">
-        <v>55.75500000000002</v>
+        <v>55.52000000000005</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7348,10 +7178,10 @@
         <v>55.5</v>
       </c>
       <c r="F193" t="n">
-        <v>1108.9999</v>
+        <v>5335.9999</v>
       </c>
       <c r="G193" t="n">
-        <v>55.71000000000002</v>
+        <v>55.53333333333339</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7371,7 +7201,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="C194" t="n">
         <v>55.5</v>
@@ -7380,13 +7210,13 @@
         <v>55.5</v>
       </c>
       <c r="E194" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="F194" t="n">
-        <v>2640.8612</v>
+        <v>1108.9999</v>
       </c>
       <c r="G194" t="n">
-        <v>55.66500000000002</v>
+        <v>55.54166666666672</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7406,7 +7236,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="C195" t="n">
         <v>55.5</v>
@@ -7415,13 +7245,13 @@
         <v>55.5</v>
       </c>
       <c r="E195" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="F195" t="n">
-        <v>1082.8578</v>
+        <v>2640.8612</v>
       </c>
       <c r="G195" t="n">
-        <v>55.62000000000002</v>
+        <v>55.54833333333339</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7441,22 +7271,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="C196" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="D196" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="E196" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="F196" t="n">
-        <v>10.5575</v>
+        <v>1082.8578</v>
       </c>
       <c r="G196" t="n">
-        <v>55.58000000000001</v>
+        <v>55.55500000000006</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7476,22 +7306,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="C197" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="D197" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="E197" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="F197" t="n">
-        <v>10</v>
+        <v>10.5575</v>
       </c>
       <c r="G197" t="n">
-        <v>55.53000000000001</v>
+        <v>55.56500000000005</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7523,10 +7353,10 @@
         <v>55.4</v>
       </c>
       <c r="F198" t="n">
-        <v>9371.083000000001</v>
+        <v>10</v>
       </c>
       <c r="G198" t="n">
-        <v>55.48</v>
+        <v>55.57000000000006</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7546,22 +7376,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="C199" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="D199" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="E199" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="F199" t="n">
-        <v>1115.079</v>
+        <v>9371.083000000001</v>
       </c>
       <c r="G199" t="n">
-        <v>55.45</v>
+        <v>55.57500000000006</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7581,22 +7411,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="C200" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="D200" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="E200" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="F200" t="n">
-        <v>4143.3924</v>
+        <v>1115.079</v>
       </c>
       <c r="G200" t="n">
-        <v>55.42</v>
+        <v>55.57666666666673</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7628,10 +7458,10 @@
         <v>55.2</v>
       </c>
       <c r="F201" t="n">
-        <v>1065</v>
+        <v>4143.3924</v>
       </c>
       <c r="G201" t="n">
-        <v>55.39000000000001</v>
+        <v>55.57666666666673</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7663,10 +7493,10 @@
         <v>55.2</v>
       </c>
       <c r="F202" t="n">
-        <v>934.9999</v>
+        <v>1065</v>
       </c>
       <c r="G202" t="n">
-        <v>55.36000000000001</v>
+        <v>55.57666666666673</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7698,10 +7528,10 @@
         <v>55.2</v>
       </c>
       <c r="F203" t="n">
-        <v>1088.9999</v>
+        <v>934.9999</v>
       </c>
       <c r="G203" t="n">
-        <v>55.33500000000002</v>
+        <v>55.57500000000006</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7721,22 +7551,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="C204" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="D204" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="E204" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="F204" t="n">
-        <v>1115.079</v>
+        <v>1088.9999</v>
       </c>
       <c r="G204" t="n">
-        <v>55.33000000000001</v>
+        <v>55.57166666666672</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7756,22 +7586,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>55.6</v>
+        <v>55.3</v>
       </c>
       <c r="C205" t="n">
-        <v>55.6</v>
+        <v>55.3</v>
       </c>
       <c r="D205" t="n">
-        <v>55.6</v>
+        <v>55.3</v>
       </c>
       <c r="E205" t="n">
-        <v>55.6</v>
+        <v>55.3</v>
       </c>
       <c r="F205" t="n">
-        <v>4174.2086</v>
+        <v>1115.079</v>
       </c>
       <c r="G205" t="n">
-        <v>55.36</v>
+        <v>55.57000000000006</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7806,7 +7636,7 @@
         <v>4174.2086</v>
       </c>
       <c r="G206" t="n">
-        <v>55.39</v>
+        <v>55.57333333333339</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7838,10 +7668,10 @@
         <v>55.6</v>
       </c>
       <c r="F207" t="n">
-        <v>704</v>
+        <v>4174.2086</v>
       </c>
       <c r="G207" t="n">
-        <v>55.415</v>
+        <v>55.57666666666672</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7864,19 +7694,19 @@
         <v>55.6</v>
       </c>
       <c r="C208" t="n">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="D208" t="n">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="E208" t="n">
         <v>55.6</v>
       </c>
       <c r="F208" t="n">
-        <v>21200.1587</v>
+        <v>704</v>
       </c>
       <c r="G208" t="n">
-        <v>55.42499999999999</v>
+        <v>55.58000000000005</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7899,19 +7729,19 @@
         <v>55.6</v>
       </c>
       <c r="C209" t="n">
-        <v>55.5</v>
+        <v>55.7</v>
       </c>
       <c r="D209" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="E209" t="n">
         <v>55.6</v>
       </c>
-      <c r="E209" t="n">
-        <v>55.5</v>
-      </c>
       <c r="F209" t="n">
-        <v>11295.0356</v>
+        <v>21200.1587</v>
       </c>
       <c r="G209" t="n">
-        <v>55.43499999999998</v>
+        <v>55.58500000000004</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7931,22 +7761,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="C210" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="D210" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="E210" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="F210" t="n">
-        <v>6031.9287</v>
+        <v>11295.0356</v>
       </c>
       <c r="G210" t="n">
-        <v>55.42999999999999</v>
+        <v>55.58666666666671</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7966,22 +7796,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>55.6</v>
+        <v>55.4</v>
       </c>
       <c r="C211" t="n">
-        <v>55.6</v>
+        <v>55.4</v>
       </c>
       <c r="D211" t="n">
-        <v>55.6</v>
+        <v>55.4</v>
       </c>
       <c r="E211" t="n">
-        <v>55.6</v>
+        <v>55.4</v>
       </c>
       <c r="F211" t="n">
-        <v>1188</v>
+        <v>6031.9287</v>
       </c>
       <c r="G211" t="n">
-        <v>55.43499999999998</v>
+        <v>55.58666666666671</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8013,10 +7843,10 @@
         <v>55.6</v>
       </c>
       <c r="F212" t="n">
-        <v>1.3511</v>
+        <v>1188</v>
       </c>
       <c r="G212" t="n">
-        <v>55.43999999999998</v>
+        <v>55.59833333333337</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8048,10 +7878,10 @@
         <v>55.6</v>
       </c>
       <c r="F213" t="n">
-        <v>6176.3467</v>
+        <v>1.3511</v>
       </c>
       <c r="G213" t="n">
-        <v>55.44499999999997</v>
+        <v>55.60333333333337</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8071,22 +7901,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="C214" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="D214" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="E214" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="F214" t="n">
-        <v>632.6106</v>
+        <v>6176.3467</v>
       </c>
       <c r="G214" t="n">
-        <v>55.44499999999997</v>
+        <v>55.60833333333336</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8118,10 +7948,10 @@
         <v>55.4</v>
       </c>
       <c r="F215" t="n">
-        <v>740.3698000000001</v>
+        <v>632.6106</v>
       </c>
       <c r="G215" t="n">
-        <v>55.43999999999998</v>
+        <v>55.61000000000003</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8153,10 +7983,10 @@
         <v>55.4</v>
       </c>
       <c r="F216" t="n">
-        <v>141.1936</v>
+        <v>740.3698000000001</v>
       </c>
       <c r="G216" t="n">
-        <v>55.42999999999999</v>
+        <v>55.61166666666669</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8188,10 +8018,10 @@
         <v>55.4</v>
       </c>
       <c r="F217" t="n">
-        <v>4171.7653</v>
+        <v>141.1936</v>
       </c>
       <c r="G217" t="n">
-        <v>55.42999999999999</v>
+        <v>55.61333333333336</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8223,10 +8053,10 @@
         <v>55.4</v>
       </c>
       <c r="F218" t="n">
-        <v>14909.9212</v>
+        <v>4171.7653</v>
       </c>
       <c r="G218" t="n">
-        <v>55.42999999999999</v>
+        <v>55.61500000000002</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8258,10 +8088,10 @@
         <v>55.4</v>
       </c>
       <c r="F219" t="n">
-        <v>17056.7414</v>
+        <v>14909.9212</v>
       </c>
       <c r="G219" t="n">
-        <v>55.43499999999999</v>
+        <v>55.61666666666669</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8281,22 +8111,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="C220" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="D220" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="E220" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="F220" t="n">
-        <v>25150.895</v>
+        <v>17056.7414</v>
       </c>
       <c r="G220" t="n">
-        <v>55.43999999999998</v>
+        <v>55.61833333333335</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8316,22 +8146,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>55.1</v>
+        <v>55.3</v>
       </c>
       <c r="C221" t="n">
         <v>55.1</v>
       </c>
       <c r="D221" t="n">
-        <v>55.1</v>
+        <v>55.3</v>
       </c>
       <c r="E221" t="n">
         <v>55.1</v>
       </c>
       <c r="F221" t="n">
-        <v>1158</v>
+        <v>25150.895</v>
       </c>
       <c r="G221" t="n">
-        <v>55.43499999999998</v>
+        <v>55.61500000000002</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8351,22 +8181,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="C222" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="D222" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="E222" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="F222" t="n">
-        <v>543.4124</v>
+        <v>1158</v>
       </c>
       <c r="G222" t="n">
-        <v>55.43499999999998</v>
+        <v>55.61166666666668</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8386,22 +8216,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>55.4</v>
+        <v>55.2</v>
       </c>
       <c r="C223" t="n">
-        <v>55.9</v>
+        <v>55.2</v>
       </c>
       <c r="D223" t="n">
-        <v>55.9</v>
+        <v>55.2</v>
       </c>
       <c r="E223" t="n">
-        <v>55.4</v>
+        <v>55.2</v>
       </c>
       <c r="F223" t="n">
-        <v>92611.32120000001</v>
+        <v>543.4124</v>
       </c>
       <c r="G223" t="n">
-        <v>55.44499999999998</v>
+        <v>55.61833333333334</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8421,22 +8251,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>55.7</v>
+        <v>55.4</v>
       </c>
       <c r="C224" t="n">
-        <v>56.5</v>
+        <v>55.9</v>
       </c>
       <c r="D224" t="n">
-        <v>56.5</v>
+        <v>55.9</v>
       </c>
       <c r="E224" t="n">
-        <v>55.7</v>
+        <v>55.4</v>
       </c>
       <c r="F224" t="n">
-        <v>23241.6566</v>
+        <v>92611.32120000001</v>
       </c>
       <c r="G224" t="n">
-        <v>55.46499999999999</v>
+        <v>55.62833333333334</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8456,22 +8286,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>55.5</v>
+        <v>55.7</v>
       </c>
       <c r="C225" t="n">
-        <v>56.9</v>
+        <v>56.5</v>
       </c>
       <c r="D225" t="n">
-        <v>56.9</v>
+        <v>56.5</v>
       </c>
       <c r="E225" t="n">
-        <v>55.5</v>
+        <v>55.7</v>
       </c>
       <c r="F225" t="n">
-        <v>1254.3004</v>
+        <v>23241.6566</v>
       </c>
       <c r="G225" t="n">
-        <v>55.45999999999999</v>
+        <v>55.645</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8491,22 +8321,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>57.1</v>
+        <v>55.5</v>
       </c>
       <c r="C226" t="n">
-        <v>55.6</v>
+        <v>56.9</v>
       </c>
       <c r="D226" t="n">
-        <v>57.1</v>
+        <v>56.9</v>
       </c>
       <c r="E226" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="F226" t="n">
-        <v>15094.0101</v>
+        <v>1254.3004</v>
       </c>
       <c r="G226" t="n">
-        <v>55.53499999999999</v>
+        <v>55.66500000000001</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8526,22 +8356,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>55.6</v>
+        <v>57.1</v>
       </c>
       <c r="C227" t="n">
         <v>55.6</v>
       </c>
       <c r="D227" t="n">
-        <v>55.6</v>
+        <v>57.1</v>
       </c>
       <c r="E227" t="n">
-        <v>55.6</v>
+        <v>55.4</v>
       </c>
       <c r="F227" t="n">
-        <v>43628</v>
+        <v>15094.0101</v>
       </c>
       <c r="G227" t="n">
-        <v>55.53499999999999</v>
+        <v>55.66</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8564,19 +8394,19 @@
         <v>55.6</v>
       </c>
       <c r="C228" t="n">
-        <v>57</v>
+        <v>55.6</v>
       </c>
       <c r="D228" t="n">
-        <v>57</v>
+        <v>55.6</v>
       </c>
       <c r="E228" t="n">
         <v>55.6</v>
       </c>
       <c r="F228" t="n">
-        <v>4180</v>
+        <v>43628</v>
       </c>
       <c r="G228" t="n">
-        <v>55.53499999999999</v>
+        <v>55.655</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8596,22 +8426,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>55.1</v>
+        <v>55.6</v>
       </c>
       <c r="C229" t="n">
-        <v>54.6</v>
+        <v>57</v>
       </c>
       <c r="D229" t="n">
-        <v>55.1</v>
+        <v>57</v>
       </c>
       <c r="E229" t="n">
-        <v>54.6</v>
+        <v>55.6</v>
       </c>
       <c r="F229" t="n">
-        <v>23545.8193</v>
+        <v>4180</v>
       </c>
       <c r="G229" t="n">
-        <v>55.50999999999999</v>
+        <v>55.67166666666667</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8631,22 +8461,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>54.7</v>
+        <v>55.1</v>
       </c>
       <c r="C230" t="n">
-        <v>55.5</v>
+        <v>54.6</v>
       </c>
       <c r="D230" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="E230" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="F230" t="n">
-        <v>21729.7047</v>
+        <v>23545.8193</v>
       </c>
       <c r="G230" t="n">
-        <v>55.47499999999999</v>
+        <v>55.64</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8666,22 +8496,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="C231" t="n">
-        <v>54.4</v>
+        <v>55.5</v>
       </c>
       <c r="D231" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="E231" t="n">
-        <v>54.4</v>
+        <v>54.7</v>
       </c>
       <c r="F231" t="n">
-        <v>34258.8997</v>
+        <v>21729.7047</v>
       </c>
       <c r="G231" t="n">
-        <v>55.44</v>
+        <v>55.625</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8701,22 +8531,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>54.7</v>
+        <v>54.9</v>
       </c>
       <c r="C232" t="n">
-        <v>54.5</v>
+        <v>54.4</v>
       </c>
       <c r="D232" t="n">
-        <v>55.5</v>
+        <v>55.8</v>
       </c>
       <c r="E232" t="n">
         <v>54.4</v>
       </c>
       <c r="F232" t="n">
-        <v>24003.6098</v>
+        <v>34258.8997</v>
       </c>
       <c r="G232" t="n">
-        <v>55.395</v>
+        <v>55.59166666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8736,22 +8566,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="C233" t="n">
         <v>54.5</v>
       </c>
-      <c r="C233" t="n">
-        <v>54.3</v>
-      </c>
       <c r="D233" t="n">
-        <v>54.5</v>
+        <v>55.5</v>
       </c>
       <c r="E233" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="F233" t="n">
-        <v>83053.7421</v>
+        <v>24003.6098</v>
       </c>
       <c r="G233" t="n">
-        <v>55.34000000000001</v>
+        <v>55.56</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8771,22 +8601,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>55.2</v>
+        <v>54.5</v>
       </c>
       <c r="C234" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="D234" t="n">
-        <v>55.2</v>
+        <v>54.5</v>
       </c>
       <c r="E234" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="F234" t="n">
-        <v>416.6666</v>
+        <v>83053.7421</v>
       </c>
       <c r="G234" t="n">
-        <v>55.33000000000001</v>
+        <v>55.53166666666667</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8806,22 +8636,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="C235" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="D235" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="E235" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="F235" t="n">
-        <v>5476.0079</v>
+        <v>416.6666</v>
       </c>
       <c r="G235" t="n">
-        <v>55.315</v>
+        <v>55.51166666666666</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8853,10 +8683,10 @@
         <v>55.1</v>
       </c>
       <c r="F236" t="n">
-        <v>583.9921000000001</v>
+        <v>5476.0079</v>
       </c>
       <c r="G236" t="n">
-        <v>55.29999999999999</v>
+        <v>55.48999999999999</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8888,10 +8718,10 @@
         <v>55.1</v>
       </c>
       <c r="F237" t="n">
-        <v>892.3241</v>
+        <v>583.9921000000001</v>
       </c>
       <c r="G237" t="n">
-        <v>55.28499999999998</v>
+        <v>55.46833333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8911,22 +8741,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="C238" t="n">
-        <v>55.3</v>
+        <v>55.1</v>
       </c>
       <c r="D238" t="n">
-        <v>55.3</v>
+        <v>55.1</v>
       </c>
       <c r="E238" t="n">
         <v>55.1</v>
       </c>
       <c r="F238" t="n">
-        <v>19813.3338</v>
+        <v>892.3241</v>
       </c>
       <c r="G238" t="n">
-        <v>55.27499999999998</v>
+        <v>55.44666666666665</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8946,22 +8776,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="C239" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="D239" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="E239" t="n">
-        <v>55.5</v>
+        <v>55.1</v>
       </c>
       <c r="F239" t="n">
-        <v>1270</v>
+        <v>19813.3338</v>
       </c>
       <c r="G239" t="n">
-        <v>55.27999999999997</v>
+        <v>55.42833333333332</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8981,22 +8811,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="C240" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="D240" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="E240" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="F240" t="n">
-        <v>10</v>
+        <v>1270</v>
       </c>
       <c r="G240" t="n">
-        <v>55.29499999999997</v>
+        <v>55.42333333333332</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9016,22 +8846,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="C241" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="D241" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="E241" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="F241" t="n">
-        <v>684</v>
+        <v>10</v>
       </c>
       <c r="G241" t="n">
-        <v>55.31499999999998</v>
+        <v>55.41999999999998</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9051,22 +8881,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="C242" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="D242" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="E242" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="F242" t="n">
-        <v>20658.4336</v>
+        <v>684</v>
       </c>
       <c r="G242" t="n">
-        <v>55.31499999999998</v>
+        <v>55.41499999999998</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9086,22 +8916,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="C243" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="D243" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="E243" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="F243" t="n">
-        <v>8336.6909</v>
+        <v>20658.4336</v>
       </c>
       <c r="G243" t="n">
-        <v>55.29999999999997</v>
+        <v>55.40666666666664</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9133,10 +8963,10 @@
         <v>55.1</v>
       </c>
       <c r="F244" t="n">
-        <v>1000</v>
+        <v>8336.6909</v>
       </c>
       <c r="G244" t="n">
-        <v>55.26999999999996</v>
+        <v>55.39666666666665</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9156,22 +8986,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="C245" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="D245" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="E245" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="F245" t="n">
-        <v>557.4824</v>
+        <v>1000</v>
       </c>
       <c r="G245" t="n">
-        <v>55.25499999999996</v>
+        <v>55.39166666666664</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9191,22 +9021,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="C246" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="D246" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="E246" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="F246" t="n">
-        <v>40142.9787</v>
+        <v>557.4824</v>
       </c>
       <c r="G246" t="n">
-        <v>55.14999999999996</v>
+        <v>55.39499999999997</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9226,22 +9056,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="C247" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="D247" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="E247" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="F247" t="n">
-        <v>299.6315</v>
+        <v>40142.9787</v>
       </c>
       <c r="G247" t="n">
-        <v>55.12499999999996</v>
+        <v>55.39499999999997</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9261,22 +9091,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="C248" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="D248" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="E248" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="F248" t="n">
-        <v>48177.0942</v>
+        <v>299.6315</v>
       </c>
       <c r="G248" t="n">
-        <v>55.09499999999997</v>
+        <v>55.38666666666664</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9296,22 +9126,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>55.4</v>
+        <v>55</v>
       </c>
       <c r="C249" t="n">
-        <v>55.4</v>
+        <v>55</v>
       </c>
       <c r="D249" t="n">
-        <v>55.4</v>
+        <v>55</v>
       </c>
       <c r="E249" t="n">
-        <v>55.4</v>
+        <v>55</v>
       </c>
       <c r="F249" t="n">
-        <v>1253</v>
+        <v>48177.0942</v>
       </c>
       <c r="G249" t="n">
-        <v>55.10999999999998</v>
+        <v>55.38333333333331</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9331,22 +9161,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>55.2</v>
+        <v>55.4</v>
       </c>
       <c r="C250" t="n">
-        <v>55.2</v>
+        <v>55.4</v>
       </c>
       <c r="D250" t="n">
-        <v>55.2</v>
+        <v>55.4</v>
       </c>
       <c r="E250" t="n">
-        <v>55.2</v>
+        <v>55.4</v>
       </c>
       <c r="F250" t="n">
-        <v>140.7647</v>
+        <v>1253</v>
       </c>
       <c r="G250" t="n">
-        <v>55.13499999999998</v>
+        <v>55.38333333333331</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9366,22 +9196,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="C251" t="n">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="D251" t="n">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="E251" t="n">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="F251" t="n">
-        <v>479.1891</v>
+        <v>140.7647</v>
       </c>
       <c r="G251" t="n">
-        <v>55.16499999999998</v>
+        <v>55.37999999999997</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9401,22 +9231,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="C252" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="D252" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="E252" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="F252" t="n">
-        <v>2296.8793</v>
+        <v>479.1891</v>
       </c>
       <c r="G252" t="n">
-        <v>55.20999999999997</v>
+        <v>55.37999999999997</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9448,10 +9278,10 @@
         <v>55.6</v>
       </c>
       <c r="F253" t="n">
-        <v>6890.6474</v>
+        <v>2296.8793</v>
       </c>
       <c r="G253" t="n">
-        <v>55.26499999999997</v>
+        <v>55.38166666666664</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9471,22 +9301,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="C254" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="D254" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="E254" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="F254" t="n">
-        <v>1831.2503</v>
+        <v>6890.6474</v>
       </c>
       <c r="G254" t="n">
-        <v>55.27499999999996</v>
+        <v>55.3833333333333</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9506,22 +9336,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>55.6</v>
+        <v>55.4</v>
       </c>
       <c r="C255" t="n">
-        <v>55.6</v>
+        <v>55.4</v>
       </c>
       <c r="D255" t="n">
-        <v>55.6</v>
+        <v>55.4</v>
       </c>
       <c r="E255" t="n">
-        <v>55.6</v>
+        <v>55.4</v>
       </c>
       <c r="F255" t="n">
-        <v>219.3647</v>
+        <v>1831.2503</v>
       </c>
       <c r="G255" t="n">
-        <v>55.29999999999997</v>
+        <v>55.38166666666664</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9541,22 +9371,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="C256" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="D256" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="E256" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="F256" t="n">
-        <v>10</v>
+        <v>219.3647</v>
       </c>
       <c r="G256" t="n">
-        <v>55.31499999999998</v>
+        <v>55.3833333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9576,22 +9406,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>55.2</v>
+        <v>55.4</v>
       </c>
       <c r="C257" t="n">
-        <v>54.8</v>
+        <v>55.4</v>
       </c>
       <c r="D257" t="n">
-        <v>55.2</v>
+        <v>55.4</v>
       </c>
       <c r="E257" t="n">
-        <v>54.8</v>
+        <v>55.4</v>
       </c>
       <c r="F257" t="n">
-        <v>30562.4723</v>
+        <v>10</v>
       </c>
       <c r="G257" t="n">
-        <v>55.31999999999998</v>
+        <v>55.37999999999997</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9611,22 +9441,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>54.9</v>
+        <v>55.2</v>
       </c>
       <c r="C258" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="D258" t="n">
-        <v>54.9</v>
+        <v>55.2</v>
       </c>
       <c r="E258" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="F258" t="n">
-        <v>10</v>
+        <v>30562.4723</v>
       </c>
       <c r="G258" t="n">
-        <v>55.30499999999999</v>
+        <v>55.36999999999998</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9641,6 +9471,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C259" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D259" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E259" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F259" t="n">
+        <v>10</v>
+      </c>
+      <c r="G259" t="n">
+        <v>55.36166666666664</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-29 BackTest POWR.xlsx
+++ b/BackTest/2019-10-29 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M259"/>
+  <dimension ref="A1:N269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2389.7387</v>
       </c>
       <c r="G2" t="n">
+        <v>54.59333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>55.68666666666665</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>6947.4759</v>
       </c>
       <c r="G3" t="n">
+        <v>54.55333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>55.63999999999998</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>47187.8934</v>
       </c>
       <c r="G4" t="n">
+        <v>54.46000000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>55.58333333333331</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>606.4195</v>
       </c>
       <c r="G5" t="n">
+        <v>54.36000000000001</v>
+      </c>
+      <c r="H5" t="n">
         <v>55.52333333333331</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1600</v>
       </c>
       <c r="G6" t="n">
+        <v>54.29333333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>55.46333333333332</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>5032.3891</v>
       </c>
       <c r="G7" t="n">
+        <v>54.20666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>55.40166666666665</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,25 @@
         <v>9000</v>
       </c>
       <c r="G8" t="n">
+        <v>54.16</v>
+      </c>
+      <c r="H8" t="n">
         <v>55.34499999999998</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +723,29 @@
         <v>28961</v>
       </c>
       <c r="G9" t="n">
+        <v>54.12</v>
+      </c>
+      <c r="H9" t="n">
         <v>55.28833333333331</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>54</v>
+      </c>
+      <c r="L9" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +769,29 @@
         <v>4422</v>
       </c>
       <c r="G10" t="n">
+        <v>54.09333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>55.24333333333331</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>54</v>
+      </c>
+      <c r="L10" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +815,25 @@
         <v>2000</v>
       </c>
       <c r="G11" t="n">
+        <v>54.08666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>55.19999999999997</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +857,29 @@
         <v>1323.7681</v>
       </c>
       <c r="G12" t="n">
+        <v>54.06666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>55.16499999999998</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +903,29 @@
         <v>75740.92969999999</v>
       </c>
       <c r="G13" t="n">
+        <v>54.09333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>55.13499999999998</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +949,25 @@
         <v>1271.6124</v>
       </c>
       <c r="G14" t="n">
+        <v>54.09999999999999</v>
+      </c>
+      <c r="H14" t="n">
         <v>55.10666666666665</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +991,29 @@
         <v>2304</v>
       </c>
       <c r="G15" t="n">
+        <v>54.11999999999999</v>
+      </c>
+      <c r="H15" t="n">
         <v>55.07833333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1037,29 @@
         <v>1969</v>
       </c>
       <c r="G16" t="n">
+        <v>54.12666666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>55.04666666666665</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1083,21 @@
         <v>3270.4937</v>
       </c>
       <c r="G17" t="n">
+        <v>54.13333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>55.01833333333332</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1121,21 @@
         <v>694.2413</v>
       </c>
       <c r="G18" t="n">
+        <v>54.11333333333332</v>
+      </c>
+      <c r="H18" t="n">
         <v>54.98999999999999</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1159,21 @@
         <v>691.1337</v>
       </c>
       <c r="G19" t="n">
+        <v>54.13999999999999</v>
+      </c>
+      <c r="H19" t="n">
         <v>54.96166666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1197,21 @@
         <v>4872.928</v>
       </c>
       <c r="G20" t="n">
+        <v>54.17333333333332</v>
+      </c>
+      <c r="H20" t="n">
         <v>54.93833333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1235,21 @@
         <v>2555.2125</v>
       </c>
       <c r="G21" t="n">
+        <v>54.19333333333332</v>
+      </c>
+      <c r="H21" t="n">
         <v>54.91166666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1273,21 @@
         <v>1780.502</v>
       </c>
       <c r="G22" t="n">
+        <v>54.20666666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>54.88500000000001</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1311,21 @@
         <v>614</v>
       </c>
       <c r="G23" t="n">
+        <v>54.22666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>54.86166666666668</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1349,21 @@
         <v>10595.4797</v>
       </c>
       <c r="G24" t="n">
+        <v>54.23999999999999</v>
+      </c>
+      <c r="H24" t="n">
         <v>54.83666666666668</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1387,21 @@
         <v>30</v>
       </c>
       <c r="G25" t="n">
+        <v>54.24666666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>54.81166666666668</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1425,21 @@
         <v>29</v>
       </c>
       <c r="G26" t="n">
+        <v>54.23333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>54.77833333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1463,21 @@
         <v>24141.2105</v>
       </c>
       <c r="G27" t="n">
+        <v>54.23999999999999</v>
+      </c>
+      <c r="H27" t="n">
         <v>54.75000000000001</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1501,21 @@
         <v>40881.7856</v>
       </c>
       <c r="G28" t="n">
+        <v>54.22666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>54.72500000000001</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1539,21 @@
         <v>43900.7856</v>
       </c>
       <c r="G29" t="n">
+        <v>54.21333333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>54.69833333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1577,21 @@
         <v>20</v>
       </c>
       <c r="G30" t="n">
+        <v>54.20000000000001</v>
+      </c>
+      <c r="H30" t="n">
         <v>54.66666666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1615,21 @@
         <v>200</v>
       </c>
       <c r="G31" t="n">
+        <v>54.19333333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>54.63833333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1653,21 @@
         <v>10927.7645</v>
       </c>
       <c r="G32" t="n">
+        <v>54.16666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>54.60833333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1691,21 @@
         <v>13747.3023</v>
       </c>
       <c r="G33" t="n">
+        <v>54.13333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>54.575</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1729,21 @@
         <v>6293.7646</v>
       </c>
       <c r="G34" t="n">
+        <v>54.09333333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>54.53833333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1767,21 @@
         <v>2279.1334</v>
       </c>
       <c r="G35" t="n">
+        <v>54.06666666666668</v>
+      </c>
+      <c r="H35" t="n">
         <v>54.50333333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1805,21 @@
         <v>8316.346299999999</v>
       </c>
       <c r="G36" t="n">
+        <v>54.05333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>54.47000000000001</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1843,25 @@
         <v>1229.1333</v>
       </c>
       <c r="G37" t="n">
+        <v>54.05333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>54.43833333333334</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="L37" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1885,29 @@
         <v>9817.104300000001</v>
       </c>
       <c r="G38" t="n">
+        <v>54.03333333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>54.40833333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>54</v>
+      </c>
+      <c r="L38" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1931,29 @@
         <v>2000</v>
       </c>
       <c r="G39" t="n">
+        <v>54.02</v>
+      </c>
+      <c r="H39" t="n">
         <v>54.37833333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>54</v>
+      </c>
+      <c r="L39" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1977,25 @@
         <v>80010</v>
       </c>
       <c r="G40" t="n">
+        <v>54.02</v>
+      </c>
+      <c r="H40" t="n">
         <v>54.35166666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>54</v>
+      </c>
+      <c r="L40" t="n">
+        <v>54</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2019,29 @@
         <v>1733556.5917</v>
       </c>
       <c r="G41" t="n">
+        <v>54.04000000000001</v>
+      </c>
+      <c r="H41" t="n">
         <v>54.33166666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>54</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2065,27 @@
         <v>273000</v>
       </c>
       <c r="G42" t="n">
+        <v>54.04666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>54.31666666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>54</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2109,21 @@
         <v>132000</v>
       </c>
       <c r="G43" t="n">
+        <v>54.06666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>54.30666666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2147,21 @@
         <v>145000</v>
       </c>
       <c r="G44" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="H44" t="n">
         <v>54.30499999999999</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2185,21 @@
         <v>5894.4777</v>
       </c>
       <c r="G45" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="H45" t="n">
         <v>54.29666666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2223,21 @@
         <v>1000</v>
       </c>
       <c r="G46" t="n">
+        <v>54.19333333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>54.29166666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2261,21 @@
         <v>109802.3219</v>
       </c>
       <c r="G47" t="n">
+        <v>54.27999999999999</v>
+      </c>
+      <c r="H47" t="n">
         <v>54.29333333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2299,21 @@
         <v>18900000</v>
       </c>
       <c r="G48" t="n">
+        <v>54.37333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>54.29333333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2337,21 @@
         <v>10517232.9113</v>
       </c>
       <c r="G49" t="n">
+        <v>54.47333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>54.29166666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2375,21 @@
         <v>104148.2702</v>
       </c>
       <c r="G50" t="n">
+        <v>54.56666666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>54.29166666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2413,21 @@
         <v>8400000</v>
       </c>
       <c r="G51" t="n">
+        <v>54.65999999999999</v>
+      </c>
+      <c r="H51" t="n">
         <v>54.3</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2451,21 @@
         <v>4907517.9674</v>
       </c>
       <c r="G52" t="n">
+        <v>54.74666666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>54.30333333333335</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2489,21 @@
         <v>8631483</v>
       </c>
       <c r="G53" t="n">
+        <v>54.83333333333332</v>
+      </c>
+      <c r="H53" t="n">
         <v>54.31333333333335</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2527,21 @@
         <v>18550714</v>
       </c>
       <c r="G54" t="n">
+        <v>54.91999999999998</v>
+      </c>
+      <c r="H54" t="n">
         <v>54.32500000000002</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2565,21 @@
         <v>18460205.6074</v>
       </c>
       <c r="G55" t="n">
+        <v>54.99333333333331</v>
+      </c>
+      <c r="H55" t="n">
         <v>54.33833333333336</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2603,21 @@
         <v>18206224.2261</v>
       </c>
       <c r="G56" t="n">
+        <v>55.06666666666663</v>
+      </c>
+      <c r="H56" t="n">
         <v>54.3566666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2641,21 @@
         <v>18340000</v>
       </c>
       <c r="G57" t="n">
+        <v>55.1333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>54.3716666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2679,21 @@
         <v>18410000</v>
       </c>
       <c r="G58" t="n">
+        <v>55.18666666666663</v>
+      </c>
+      <c r="H58" t="n">
         <v>54.39333333333337</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2717,21 @@
         <v>18200000</v>
       </c>
       <c r="G59" t="n">
+        <v>55.2333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>54.41166666666671</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2755,21 @@
         <v>18270000</v>
       </c>
       <c r="G60" t="n">
+        <v>55.27333333333329</v>
+      </c>
+      <c r="H60" t="n">
         <v>54.43333333333338</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2793,21 @@
         <v>12110000</v>
       </c>
       <c r="G61" t="n">
+        <v>55.29999999999995</v>
+      </c>
+      <c r="H61" t="n">
         <v>54.45333333333338</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2831,21 @@
         <v>2592000</v>
       </c>
       <c r="G62" t="n">
+        <v>55.29999999999995</v>
+      </c>
+      <c r="H62" t="n">
         <v>54.47000000000005</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2869,21 @@
         <v>348.1249</v>
       </c>
       <c r="G63" t="n">
+        <v>55.29999999999995</v>
+      </c>
+      <c r="H63" t="n">
         <v>54.48000000000005</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2907,21 @@
         <v>13200000</v>
       </c>
       <c r="G64" t="n">
+        <v>55.29999999999995</v>
+      </c>
+      <c r="H64" t="n">
         <v>54.50166666666673</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2945,21 @@
         <v>20722000</v>
       </c>
       <c r="G65" t="n">
+        <v>55.29999999999995</v>
+      </c>
+      <c r="H65" t="n">
         <v>54.52666666666673</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2983,21 @@
         <v>20318000</v>
       </c>
       <c r="G66" t="n">
+        <v>55.29999999999995</v>
+      </c>
+      <c r="H66" t="n">
         <v>54.55166666666673</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3021,21 @@
         <v>20000000</v>
       </c>
       <c r="G67" t="n">
+        <v>55.29999999999995</v>
+      </c>
+      <c r="H67" t="n">
         <v>54.57666666666672</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3059,21 @@
         <v>20960000</v>
       </c>
       <c r="G68" t="n">
+        <v>55.29999999999995</v>
+      </c>
+      <c r="H68" t="n">
         <v>54.59833333333339</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3097,21 @@
         <v>21360000</v>
       </c>
       <c r="G69" t="n">
+        <v>55.29999999999995</v>
+      </c>
+      <c r="H69" t="n">
         <v>54.62000000000007</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3135,21 @@
         <v>20320656</v>
       </c>
       <c r="G70" t="n">
+        <v>55.29999999999995</v>
+      </c>
+      <c r="H70" t="n">
         <v>54.64000000000007</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3173,21 @@
         <v>17122000</v>
       </c>
       <c r="G71" t="n">
+        <v>55.29999999999995</v>
+      </c>
+      <c r="H71" t="n">
         <v>54.66000000000007</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3211,21 @@
         <v>9520000</v>
       </c>
       <c r="G72" t="n">
+        <v>55.29999999999995</v>
+      </c>
+      <c r="H72" t="n">
         <v>54.68000000000008</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3249,21 @@
         <v>18131114.7657</v>
       </c>
       <c r="G73" t="n">
+        <v>55.29999999999995</v>
+      </c>
+      <c r="H73" t="n">
         <v>54.69500000000008</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3287,21 @@
         <v>17920010</v>
       </c>
       <c r="G74" t="n">
+        <v>55.29999999999995</v>
+      </c>
+      <c r="H74" t="n">
         <v>54.71166666666674</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3325,21 @@
         <v>275847.5841</v>
       </c>
       <c r="G75" t="n">
+        <v>55.32666666666663</v>
+      </c>
+      <c r="H75" t="n">
         <v>54.73500000000008</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3363,21 @@
         <v>2016</v>
       </c>
       <c r="G76" t="n">
+        <v>55.3533333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>54.76000000000008</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3401,21 @@
         <v>7396.0206</v>
       </c>
       <c r="G77" t="n">
+        <v>55.36666666666664</v>
+      </c>
+      <c r="H77" t="n">
         <v>54.77833333333341</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3439,21 @@
         <v>500</v>
       </c>
       <c r="G78" t="n">
+        <v>55.37999999999997</v>
+      </c>
+      <c r="H78" t="n">
         <v>54.79666666666674</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3477,21 @@
         <v>19727.2861</v>
       </c>
       <c r="G79" t="n">
+        <v>55.40666666666664</v>
+      </c>
+      <c r="H79" t="n">
         <v>54.8183333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3515,21 @@
         <v>17691.5734</v>
       </c>
       <c r="G80" t="n">
+        <v>55.41333333333331</v>
+      </c>
+      <c r="H80" t="n">
         <v>54.83666666666673</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3553,21 @@
         <v>5791.92754919</v>
       </c>
       <c r="G81" t="n">
+        <v>55.41333333333331</v>
+      </c>
+      <c r="H81" t="n">
         <v>54.85666666666673</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3591,21 @@
         <v>5151100</v>
       </c>
       <c r="G82" t="n">
+        <v>55.41999999999998</v>
+      </c>
+      <c r="H82" t="n">
         <v>54.88000000000007</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3629,21 @@
         <v>5800610</v>
       </c>
       <c r="G83" t="n">
+        <v>55.41999999999998</v>
+      </c>
+      <c r="H83" t="n">
         <v>54.89666666666674</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3667,21 @@
         <v>4002969.5836</v>
       </c>
       <c r="G84" t="n">
+        <v>55.41999999999998</v>
+      </c>
+      <c r="H84" t="n">
         <v>54.91500000000008</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3705,21 @@
         <v>7080011</v>
       </c>
       <c r="G85" t="n">
+        <v>55.41999999999998</v>
+      </c>
+      <c r="H85" t="n">
         <v>54.93333333333342</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3743,21 @@
         <v>17225000</v>
       </c>
       <c r="G86" t="n">
+        <v>55.41999999999998</v>
+      </c>
+      <c r="H86" t="n">
         <v>54.95666666666675</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3781,21 @@
         <v>17229083.9837</v>
       </c>
       <c r="G87" t="n">
+        <v>55.41999999999998</v>
+      </c>
+      <c r="H87" t="n">
         <v>54.97500000000009</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3819,21 @@
         <v>1755000</v>
       </c>
       <c r="G88" t="n">
+        <v>55.41999999999998</v>
+      </c>
+      <c r="H88" t="n">
         <v>54.99333333333343</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3857,21 @@
         <v>10996.1663</v>
       </c>
       <c r="G89" t="n">
+        <v>55.41999999999998</v>
+      </c>
+      <c r="H89" t="n">
         <v>55.01333333333343</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3895,21 @@
         <v>17053.9496</v>
       </c>
       <c r="G90" t="n">
+        <v>55.38666666666665</v>
+      </c>
+      <c r="H90" t="n">
         <v>55.03166666666677</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3933,21 @@
         <v>13205000</v>
       </c>
       <c r="G91" t="n">
+        <v>55.35333333333332</v>
+      </c>
+      <c r="H91" t="n">
         <v>55.0500000000001</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3971,21 @@
         <v>22440000</v>
       </c>
       <c r="G92" t="n">
+        <v>55.33333333333332</v>
+      </c>
+      <c r="H92" t="n">
         <v>55.07000000000009</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4009,21 @@
         <v>22610000</v>
       </c>
       <c r="G93" t="n">
+        <v>55.31333333333332</v>
+      </c>
+      <c r="H93" t="n">
         <v>55.09166666666676</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4047,21 @@
         <v>22780000</v>
       </c>
       <c r="G94" t="n">
+        <v>55.27999999999999</v>
+      </c>
+      <c r="H94" t="n">
         <v>55.11500000000009</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4085,21 @@
         <v>22534355.9675</v>
       </c>
       <c r="G95" t="n">
+        <v>55.26666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>55.13666666666675</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4123,21 @@
         <v>22437218.085</v>
       </c>
       <c r="G96" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="H96" t="n">
         <v>55.15833333333341</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4161,21 @@
         <v>22185000</v>
       </c>
       <c r="G97" t="n">
+        <v>55.24666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>55.17833333333341</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4199,21 @@
         <v>22697781.915</v>
       </c>
       <c r="G98" t="n">
+        <v>55.24000000000001</v>
+      </c>
+      <c r="H98" t="n">
         <v>55.1983333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4237,21 @@
         <v>21419428.085</v>
       </c>
       <c r="G99" t="n">
+        <v>55.23333333333335</v>
+      </c>
+      <c r="H99" t="n">
         <v>55.2183333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4275,21 @@
         <v>21250000</v>
       </c>
       <c r="G100" t="n">
+        <v>55.22666666666669</v>
+      </c>
+      <c r="H100" t="n">
         <v>55.23500000000006</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4313,21 @@
         <v>22527210</v>
       </c>
       <c r="G101" t="n">
+        <v>55.22000000000003</v>
+      </c>
+      <c r="H101" t="n">
         <v>55.25166666666674</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,22 +4351,21 @@
         <v>22610000</v>
       </c>
       <c r="G102" t="n">
+        <v>55.21333333333337</v>
+      </c>
+      <c r="H102" t="n">
         <v>55.26666666666673</v>
       </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="K102" t="n">
-        <v>55.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3987,24 +4389,21 @@
         <v>23035000</v>
       </c>
       <c r="G103" t="n">
+        <v>55.20666666666671</v>
+      </c>
+      <c r="H103" t="n">
         <v>55.27833333333339</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,24 +4427,21 @@
         <v>23120000</v>
       </c>
       <c r="G104" t="n">
+        <v>55.20000000000005</v>
+      </c>
+      <c r="H104" t="n">
         <v>55.28833333333339</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4465,21 @@
         <v>22695000</v>
       </c>
       <c r="G105" t="n">
+        <v>55.20000000000005</v>
+      </c>
+      <c r="H105" t="n">
         <v>55.29666666666672</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4503,21 @@
         <v>22100000</v>
       </c>
       <c r="G106" t="n">
+        <v>55.20000000000005</v>
+      </c>
+      <c r="H106" t="n">
         <v>55.30166666666672</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4541,21 @@
         <v>13260000</v>
       </c>
       <c r="G107" t="n">
+        <v>55.20000000000005</v>
+      </c>
+      <c r="H107" t="n">
         <v>55.30000000000005</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4579,21 @@
         <v>800000</v>
       </c>
       <c r="G108" t="n">
+        <v>55.20000000000005</v>
+      </c>
+      <c r="H108" t="n">
         <v>55.29833333333337</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4617,21 @@
         <v>910000</v>
       </c>
       <c r="G109" t="n">
+        <v>55.20000000000005</v>
+      </c>
+      <c r="H109" t="n">
         <v>55.2966666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,22 +4655,21 @@
         <v>12040000</v>
       </c>
       <c r="G110" t="n">
+        <v>55.20666666666671</v>
+      </c>
+      <c r="H110" t="n">
         <v>55.2966666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="K110" t="n">
-        <v>55.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4283,24 +4693,21 @@
         <v>18830000</v>
       </c>
       <c r="G111" t="n">
+        <v>55.21333333333337</v>
+      </c>
+      <c r="H111" t="n">
         <v>55.2966666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,24 +4731,21 @@
         <v>18706302.7477</v>
       </c>
       <c r="G112" t="n">
+        <v>55.22000000000003</v>
+      </c>
+      <c r="H112" t="n">
         <v>55.2966666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4365,18 +4769,21 @@
         <v>18884510.4326</v>
       </c>
       <c r="G113" t="n">
+        <v>55.22666666666669</v>
+      </c>
+      <c r="H113" t="n">
         <v>55.2966666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4400,18 +4807,21 @@
         <v>18550000</v>
       </c>
       <c r="G114" t="n">
+        <v>55.23333333333335</v>
+      </c>
+      <c r="H114" t="n">
         <v>55.2966666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4435,18 +4845,21 @@
         <v>85489.5674</v>
       </c>
       <c r="G115" t="n">
+        <v>55.24000000000001</v>
+      </c>
+      <c r="H115" t="n">
         <v>55.2966666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4470,18 +4883,21 @@
         <v>15804.2797</v>
       </c>
       <c r="G116" t="n">
+        <v>55.23333333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>55.29333333333336</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4505,18 +4921,21 @@
         <v>10</v>
       </c>
       <c r="G117" t="n">
+        <v>55.23333333333334</v>
+      </c>
+      <c r="H117" t="n">
         <v>55.29166666666669</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4540,18 +4959,21 @@
         <v>10</v>
       </c>
       <c r="G118" t="n">
+        <v>55.23333333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>55.29000000000001</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4575,18 +4997,21 @@
         <v>4099.5923</v>
       </c>
       <c r="G119" t="n">
+        <v>55.23333333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>55.28833333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4610,22 +5035,21 @@
         <v>8200</v>
       </c>
       <c r="G120" t="n">
+        <v>55.22666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>55.285</v>
       </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="K120" t="n">
-        <v>55.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4649,24 +5073,21 @@
         <v>4992.3933</v>
       </c>
       <c r="G121" t="n">
+        <v>55.22000000000001</v>
+      </c>
+      <c r="H121" t="n">
         <v>55.28166666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4690,24 +5111,21 @@
         <v>215.8062</v>
       </c>
       <c r="G122" t="n">
+        <v>55.21333333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>55.27833333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4731,18 +5149,21 @@
         <v>6512.9999</v>
       </c>
       <c r="G123" t="n">
+        <v>55.19333333333334</v>
+      </c>
+      <c r="H123" t="n">
         <v>55.27166666666666</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4766,18 +5187,21 @@
         <v>10591.2623</v>
       </c>
       <c r="G124" t="n">
+        <v>55.17333333333332</v>
+      </c>
+      <c r="H124" t="n">
         <v>55.26499999999999</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4801,18 +5225,21 @@
         <v>10</v>
       </c>
       <c r="G125" t="n">
+        <v>55.13333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>55.25499999999999</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4836,18 +5263,21 @@
         <v>51</v>
       </c>
       <c r="G126" t="n">
+        <v>55.12</v>
+      </c>
+      <c r="H126" t="n">
         <v>55.25166666666665</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4871,18 +5301,21 @@
         <v>21</v>
       </c>
       <c r="G127" t="n">
+        <v>55.11333333333334</v>
+      </c>
+      <c r="H127" t="n">
         <v>55.24999999999998</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4906,18 +5339,21 @@
         <v>100.9963</v>
       </c>
       <c r="G128" t="n">
+        <v>55.10666666666668</v>
+      </c>
+      <c r="H128" t="n">
         <v>55.24833333333331</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4941,18 +5377,21 @@
         <v>195231.3525</v>
       </c>
       <c r="G129" t="n">
+        <v>55.04666666666669</v>
+      </c>
+      <c r="H129" t="n">
         <v>55.23333333333331</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4976,18 +5415,21 @@
         <v>1037.7346</v>
       </c>
       <c r="G130" t="n">
+        <v>55.03333333333335</v>
+      </c>
+      <c r="H130" t="n">
         <v>55.22999999999997</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5011,18 +5453,21 @@
         <v>1117.9999</v>
       </c>
       <c r="G131" t="n">
+        <v>55.03333333333335</v>
+      </c>
+      <c r="H131" t="n">
         <v>55.22666666666662</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5046,18 +5491,21 @@
         <v>18.1488</v>
       </c>
       <c r="G132" t="n">
+        <v>55.02666666666669</v>
+      </c>
+      <c r="H132" t="n">
         <v>55.22333333333329</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5081,18 +5529,21 @@
         <v>28.0785</v>
       </c>
       <c r="G133" t="n">
+        <v>54.99333333333335</v>
+      </c>
+      <c r="H133" t="n">
         <v>55.21333333333328</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5116,18 +5567,21 @@
         <v>196705.5359</v>
       </c>
       <c r="G134" t="n">
+        <v>54.98000000000002</v>
+      </c>
+      <c r="H134" t="n">
         <v>55.20833333333328</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5151,18 +5605,21 @@
         <v>11968.4837</v>
       </c>
       <c r="G135" t="n">
+        <v>54.98000000000002</v>
+      </c>
+      <c r="H135" t="n">
         <v>55.19833333333328</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5186,18 +5643,21 @@
         <v>4469.6501</v>
       </c>
       <c r="G136" t="n">
+        <v>54.98000000000002</v>
+      </c>
+      <c r="H136" t="n">
         <v>55.18833333333328</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5221,18 +5681,21 @@
         <v>24222.9243</v>
       </c>
       <c r="G137" t="n">
+        <v>54.97333333333335</v>
+      </c>
+      <c r="H137" t="n">
         <v>55.17999999999995</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5256,18 +5719,21 @@
         <v>11423.6684</v>
       </c>
       <c r="G138" t="n">
+        <v>54.98666666666669</v>
+      </c>
+      <c r="H138" t="n">
         <v>55.17333333333328</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5291,18 +5757,21 @@
         <v>7468</v>
       </c>
       <c r="G139" t="n">
+        <v>55.00000000000002</v>
+      </c>
+      <c r="H139" t="n">
         <v>55.16333333333328</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5326,18 +5795,21 @@
         <v>9000</v>
       </c>
       <c r="G140" t="n">
+        <v>55.03333333333335</v>
+      </c>
+      <c r="H140" t="n">
         <v>55.15999999999995</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5361,18 +5833,21 @@
         <v>15500</v>
       </c>
       <c r="G141" t="n">
+        <v>55.04000000000003</v>
+      </c>
+      <c r="H141" t="n">
         <v>55.15833333333327</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5396,18 +5871,21 @@
         <v>1012</v>
       </c>
       <c r="G142" t="n">
+        <v>55.04000000000003</v>
+      </c>
+      <c r="H142" t="n">
         <v>55.15499999999994</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5431,18 +5909,21 @@
         <v>14606.94339656</v>
       </c>
       <c r="G143" t="n">
+        <v>55.04666666666669</v>
+      </c>
+      <c r="H143" t="n">
         <v>55.15499999999994</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5466,18 +5947,21 @@
         <v>101642.2227</v>
       </c>
       <c r="G144" t="n">
+        <v>55.11333333333335</v>
+      </c>
+      <c r="H144" t="n">
         <v>55.1566666666666</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5501,18 +5985,21 @@
         <v>238</v>
       </c>
       <c r="G145" t="n">
+        <v>55.13333333333335</v>
+      </c>
+      <c r="H145" t="n">
         <v>55.15833333333327</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5536,18 +6023,21 @@
         <v>4792.0275</v>
       </c>
       <c r="G146" t="n">
+        <v>55.15333333333334</v>
+      </c>
+      <c r="H146" t="n">
         <v>55.15999999999993</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5571,18 +6061,21 @@
         <v>620.2224</v>
       </c>
       <c r="G147" t="n">
+        <v>55.17333333333334</v>
+      </c>
+      <c r="H147" t="n">
         <v>55.1616666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5606,18 +6099,21 @@
         <v>582.6531</v>
       </c>
       <c r="G148" t="n">
+        <v>55.22000000000001</v>
+      </c>
+      <c r="H148" t="n">
         <v>55.16333333333326</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5641,18 +6137,21 @@
         <v>17035.5945</v>
       </c>
       <c r="G149" t="n">
+        <v>55.24666666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>55.16499999999993</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5676,18 +6175,21 @@
         <v>7472.8171</v>
       </c>
       <c r="G150" t="n">
+        <v>55.26666666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>55.16833333333327</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5711,18 +6213,21 @@
         <v>2998.8516</v>
       </c>
       <c r="G151" t="n">
+        <v>55.28666666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>55.1716666666666</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5746,18 +6251,21 @@
         <v>10</v>
       </c>
       <c r="G152" t="n">
+        <v>55.27999999999999</v>
+      </c>
+      <c r="H152" t="n">
         <v>55.16666666666661</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5781,18 +6289,21 @@
         <v>10006.045</v>
       </c>
       <c r="G153" t="n">
+        <v>55.29333333333332</v>
+      </c>
+      <c r="H153" t="n">
         <v>55.16833333333328</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5816,18 +6327,21 @@
         <v>8444.523499999999</v>
       </c>
       <c r="G154" t="n">
+        <v>55.30666666666665</v>
+      </c>
+      <c r="H154" t="n">
         <v>55.16999999999995</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5851,18 +6365,21 @@
         <v>686.9689</v>
       </c>
       <c r="G155" t="n">
+        <v>55.31333333333331</v>
+      </c>
+      <c r="H155" t="n">
         <v>55.17166666666662</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5886,18 +6403,21 @@
         <v>4047.1793</v>
       </c>
       <c r="G156" t="n">
+        <v>55.31999999999997</v>
+      </c>
+      <c r="H156" t="n">
         <v>55.1733333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5921,18 +6441,21 @@
         <v>823.1105</v>
       </c>
       <c r="G157" t="n">
+        <v>55.32666666666663</v>
+      </c>
+      <c r="H157" t="n">
         <v>55.17499999999997</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,18 +6479,21 @@
         <v>8900</v>
       </c>
       <c r="G158" t="n">
+        <v>55.32666666666663</v>
+      </c>
+      <c r="H158" t="n">
         <v>55.17666666666664</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5991,18 +6517,21 @@
         <v>8378.0131</v>
       </c>
       <c r="G159" t="n">
+        <v>55.31999999999996</v>
+      </c>
+      <c r="H159" t="n">
         <v>55.17833333333331</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6026,18 +6555,21 @@
         <v>3000.0002</v>
       </c>
       <c r="G160" t="n">
+        <v>55.3133333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>55.17999999999999</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6061,18 +6593,21 @@
         <v>999.9999</v>
       </c>
       <c r="G161" t="n">
+        <v>55.30666666666663</v>
+      </c>
+      <c r="H161" t="n">
         <v>55.18166666666666</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6096,18 +6631,21 @@
         <v>46930.8</v>
       </c>
       <c r="G162" t="n">
+        <v>55.29999999999996</v>
+      </c>
+      <c r="H162" t="n">
         <v>55.18333333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6131,18 +6669,21 @@
         <v>147.7784</v>
       </c>
       <c r="G163" t="n">
+        <v>55.25999999999996</v>
+      </c>
+      <c r="H163" t="n">
         <v>55.17666666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6166,18 +6707,21 @@
         <v>31972.4215</v>
       </c>
       <c r="G164" t="n">
+        <v>55.25333333333329</v>
+      </c>
+      <c r="H164" t="n">
         <v>55.17833333333335</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6201,18 +6745,21 @@
         <v>122988.5068</v>
       </c>
       <c r="G165" t="n">
+        <v>55.25999999999996</v>
+      </c>
+      <c r="H165" t="n">
         <v>55.18333333333335</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6236,18 +6783,21 @@
         <v>873.2274</v>
       </c>
       <c r="G166" t="n">
+        <v>55.27999999999997</v>
+      </c>
+      <c r="H166" t="n">
         <v>55.19166666666668</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6271,18 +6821,21 @@
         <v>1792.94660787</v>
       </c>
       <c r="G167" t="n">
+        <v>55.34666666666663</v>
+      </c>
+      <c r="H167" t="n">
         <v>55.20333333333335</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6306,18 +6859,21 @@
         <v>10036.3242</v>
       </c>
       <c r="G168" t="n">
+        <v>55.38666666666663</v>
+      </c>
+      <c r="H168" t="n">
         <v>55.21500000000002</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6341,18 +6897,21 @@
         <v>1828.0915</v>
       </c>
       <c r="G169" t="n">
+        <v>55.4333333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>55.22833333333336</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6376,18 +6935,21 @@
         <v>5168.7194</v>
       </c>
       <c r="G170" t="n">
+        <v>55.51333333333331</v>
+      </c>
+      <c r="H170" t="n">
         <v>55.24833333333336</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6411,18 +6973,21 @@
         <v>17857.2629</v>
       </c>
       <c r="G171" t="n">
+        <v>55.58666666666664</v>
+      </c>
+      <c r="H171" t="n">
         <v>55.26666666666669</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6446,18 +7011,21 @@
         <v>4023.3522</v>
       </c>
       <c r="G172" t="n">
+        <v>55.65999999999998</v>
+      </c>
+      <c r="H172" t="n">
         <v>55.28500000000002</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6481,18 +7049,21 @@
         <v>1964.0091</v>
       </c>
       <c r="G173" t="n">
+        <v>55.73333333333331</v>
+      </c>
+      <c r="H173" t="n">
         <v>55.30333333333336</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6516,18 +7087,21 @@
         <v>5029.628</v>
       </c>
       <c r="G174" t="n">
+        <v>55.77999999999998</v>
+      </c>
+      <c r="H174" t="n">
         <v>55.31500000000002</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6551,18 +7125,21 @@
         <v>1220</v>
       </c>
       <c r="G175" t="n">
+        <v>55.85333333333332</v>
+      </c>
+      <c r="H175" t="n">
         <v>55.33333333333335</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6586,18 +7163,21 @@
         <v>340.394</v>
       </c>
       <c r="G176" t="n">
+        <v>55.92666666666665</v>
+      </c>
+      <c r="H176" t="n">
         <v>55.35500000000002</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6621,18 +7201,21 @@
         <v>300.26</v>
       </c>
       <c r="G177" t="n">
+        <v>55.99999999999999</v>
+      </c>
+      <c r="H177" t="n">
         <v>55.37500000000002</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6656,18 +7239,21 @@
         <v>1400.26</v>
       </c>
       <c r="G178" t="n">
+        <v>56.10666666666665</v>
+      </c>
+      <c r="H178" t="n">
         <v>55.39500000000002</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6691,18 +7277,21 @@
         <v>110.13</v>
       </c>
       <c r="G179" t="n">
+        <v>56.17999999999999</v>
+      </c>
+      <c r="H179" t="n">
         <v>55.41500000000003</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6726,18 +7315,21 @@
         <v>15226.0158</v>
       </c>
       <c r="G180" t="n">
+        <v>56.19999999999998</v>
+      </c>
+      <c r="H180" t="n">
         <v>55.4266666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6761,18 +7353,21 @@
         <v>150.7178</v>
       </c>
       <c r="G181" t="n">
+        <v>56.20666666666664</v>
+      </c>
+      <c r="H181" t="n">
         <v>55.43833333333338</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6796,18 +7391,21 @@
         <v>2000</v>
       </c>
       <c r="G182" t="n">
+        <v>56.19999999999997</v>
+      </c>
+      <c r="H182" t="n">
         <v>55.45000000000005</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6831,18 +7429,21 @@
         <v>26275.8025</v>
       </c>
       <c r="G183" t="n">
+        <v>56.18666666666665</v>
+      </c>
+      <c r="H183" t="n">
         <v>55.46333333333337</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6866,18 +7467,21 @@
         <v>719.0528</v>
       </c>
       <c r="G184" t="n">
+        <v>56.16666666666665</v>
+      </c>
+      <c r="H184" t="n">
         <v>55.4766666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6901,18 +7505,21 @@
         <v>500</v>
       </c>
       <c r="G185" t="n">
+        <v>56.09333333333332</v>
+      </c>
+      <c r="H185" t="n">
         <v>55.48833333333337</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6936,18 +7543,21 @@
         <v>21107.4131</v>
       </c>
       <c r="G186" t="n">
+        <v>55.99999999999999</v>
+      </c>
+      <c r="H186" t="n">
         <v>55.48666666666671</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6971,18 +7581,21 @@
         <v>0.0001</v>
       </c>
       <c r="G187" t="n">
+        <v>55.90666666666665</v>
+      </c>
+      <c r="H187" t="n">
         <v>55.48333333333338</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7006,18 +7619,21 @@
         <v>13968</v>
       </c>
       <c r="G188" t="n">
+        <v>55.85333333333332</v>
+      </c>
+      <c r="H188" t="n">
         <v>55.49000000000004</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7041,18 +7657,21 @@
         <v>471.5007</v>
       </c>
       <c r="G189" t="n">
+        <v>55.79999999999999</v>
+      </c>
+      <c r="H189" t="n">
         <v>55.50333333333337</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7076,18 +7695,21 @@
         <v>545.5333000000001</v>
       </c>
       <c r="G190" t="n">
+        <v>55.73333333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>55.50833333333338</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7111,18 +7733,21 @@
         <v>2581.2378</v>
       </c>
       <c r="G191" t="n">
+        <v>55.66666666666666</v>
+      </c>
+      <c r="H191" t="n">
         <v>55.51333333333339</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7146,18 +7771,21 @@
         <v>5842.3612</v>
       </c>
       <c r="G192" t="n">
+        <v>55.60666666666666</v>
+      </c>
+      <c r="H192" t="n">
         <v>55.52000000000005</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7181,18 +7809,21 @@
         <v>5335.9999</v>
       </c>
       <c r="G193" t="n">
+        <v>55.54666666666666</v>
+      </c>
+      <c r="H193" t="n">
         <v>55.53333333333339</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7216,18 +7847,21 @@
         <v>1108.9999</v>
       </c>
       <c r="G194" t="n">
+        <v>55.48666666666666</v>
+      </c>
+      <c r="H194" t="n">
         <v>55.54166666666672</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7251,18 +7885,21 @@
         <v>2640.8612</v>
       </c>
       <c r="G195" t="n">
+        <v>55.46666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>55.54833333333339</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7286,18 +7923,21 @@
         <v>1082.8578</v>
       </c>
       <c r="G196" t="n">
+        <v>55.44666666666667</v>
+      </c>
+      <c r="H196" t="n">
         <v>55.55500000000006</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7321,18 +7961,21 @@
         <v>10.5575</v>
       </c>
       <c r="G197" t="n">
+        <v>55.43333333333334</v>
+      </c>
+      <c r="H197" t="n">
         <v>55.56500000000005</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7356,18 +7999,21 @@
         <v>10</v>
       </c>
       <c r="G198" t="n">
+        <v>55.41333333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>55.57000000000006</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7391,18 +8037,21 @@
         <v>9371.083000000001</v>
       </c>
       <c r="G199" t="n">
+        <v>55.39333333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>55.57500000000006</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7426,18 +8075,21 @@
         <v>1115.079</v>
       </c>
       <c r="G200" t="n">
+        <v>55.38666666666666</v>
+      </c>
+      <c r="H200" t="n">
         <v>55.57666666666673</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7461,18 +8113,21 @@
         <v>4143.3924</v>
       </c>
       <c r="G201" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="H201" t="n">
         <v>55.57666666666673</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7496,18 +8151,21 @@
         <v>1065</v>
       </c>
       <c r="G202" t="n">
+        <v>55.41333333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>55.57666666666673</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7531,18 +8189,21 @@
         <v>934.9999</v>
       </c>
       <c r="G203" t="n">
+        <v>55.38666666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>55.57500000000006</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7566,18 +8227,21 @@
         <v>1088.9999</v>
       </c>
       <c r="G204" t="n">
+        <v>55.38666666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>55.57166666666672</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7601,18 +8265,21 @@
         <v>1115.079</v>
       </c>
       <c r="G205" t="n">
+        <v>55.38</v>
+      </c>
+      <c r="H205" t="n">
         <v>55.57000000000006</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7636,18 +8303,21 @@
         <v>4174.2086</v>
       </c>
       <c r="G206" t="n">
+        <v>55.39333333333334</v>
+      </c>
+      <c r="H206" t="n">
         <v>55.57333333333339</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7671,18 +8341,21 @@
         <v>4174.2086</v>
       </c>
       <c r="G207" t="n">
+        <v>55.40000000000001</v>
+      </c>
+      <c r="H207" t="n">
         <v>55.57666666666672</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7706,18 +8379,21 @@
         <v>704</v>
       </c>
       <c r="G208" t="n">
+        <v>55.40666666666667</v>
+      </c>
+      <c r="H208" t="n">
         <v>55.58000000000005</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,18 +8417,21 @@
         <v>21200.1587</v>
       </c>
       <c r="G209" t="n">
+        <v>55.42000000000001</v>
+      </c>
+      <c r="H209" t="n">
         <v>55.58500000000004</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7776,18 +8455,21 @@
         <v>11295.0356</v>
       </c>
       <c r="G210" t="n">
+        <v>55.42000000000001</v>
+      </c>
+      <c r="H210" t="n">
         <v>55.58666666666671</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7811,18 +8493,21 @@
         <v>6031.9287</v>
       </c>
       <c r="G211" t="n">
+        <v>55.41333333333334</v>
+      </c>
+      <c r="H211" t="n">
         <v>55.58666666666671</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7846,18 +8531,21 @@
         <v>1188</v>
       </c>
       <c r="G212" t="n">
+        <v>55.41333333333334</v>
+      </c>
+      <c r="H212" t="n">
         <v>55.59833333333337</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7881,18 +8569,21 @@
         <v>1.3511</v>
       </c>
       <c r="G213" t="n">
+        <v>55.42666666666668</v>
+      </c>
+      <c r="H213" t="n">
         <v>55.60333333333337</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7916,18 +8607,21 @@
         <v>6176.3467</v>
       </c>
       <c r="G214" t="n">
+        <v>55.44000000000002</v>
+      </c>
+      <c r="H214" t="n">
         <v>55.60833333333336</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7951,18 +8645,21 @@
         <v>632.6106</v>
       </c>
       <c r="G215" t="n">
+        <v>55.44666666666669</v>
+      </c>
+      <c r="H215" t="n">
         <v>55.61000000000003</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7986,18 +8683,21 @@
         <v>740.3698000000001</v>
       </c>
       <c r="G216" t="n">
+        <v>55.46000000000002</v>
+      </c>
+      <c r="H216" t="n">
         <v>55.61166666666669</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8021,18 +8721,21 @@
         <v>141.1936</v>
       </c>
       <c r="G217" t="n">
+        <v>55.47333333333334</v>
+      </c>
+      <c r="H217" t="n">
         <v>55.61333333333336</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8056,18 +8759,21 @@
         <v>4171.7653</v>
       </c>
       <c r="G218" t="n">
+        <v>55.48666666666667</v>
+      </c>
+      <c r="H218" t="n">
         <v>55.61500000000002</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8091,18 +8797,21 @@
         <v>14909.9212</v>
       </c>
       <c r="G219" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="H219" t="n">
         <v>55.61666666666669</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8126,18 +8835,21 @@
         <v>17056.7414</v>
       </c>
       <c r="G220" t="n">
+        <v>55.50666666666667</v>
+      </c>
+      <c r="H220" t="n">
         <v>55.61833333333335</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8161,18 +8873,21 @@
         <v>25150.895</v>
       </c>
       <c r="G221" t="n">
+        <v>55.47333333333334</v>
+      </c>
+      <c r="H221" t="n">
         <v>55.61500000000002</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8196,18 +8911,21 @@
         <v>1158</v>
       </c>
       <c r="G222" t="n">
+        <v>55.44</v>
+      </c>
+      <c r="H222" t="n">
         <v>55.61166666666668</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8231,18 +8949,21 @@
         <v>543.4124</v>
       </c>
       <c r="G223" t="n">
+        <v>55.41333333333333</v>
+      </c>
+      <c r="H223" t="n">
         <v>55.61833333333334</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8266,18 +8987,21 @@
         <v>92611.32120000001</v>
       </c>
       <c r="G224" t="n">
+        <v>55.42666666666666</v>
+      </c>
+      <c r="H224" t="n">
         <v>55.62833333333334</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8301,18 +9025,21 @@
         <v>23241.6566</v>
       </c>
       <c r="G225" t="n">
+        <v>55.49333333333333</v>
+      </c>
+      <c r="H225" t="n">
         <v>55.645</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8336,18 +9063,21 @@
         <v>1254.3004</v>
       </c>
       <c r="G226" t="n">
+        <v>55.59333333333333</v>
+      </c>
+      <c r="H226" t="n">
         <v>55.66500000000001</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8371,18 +9101,21 @@
         <v>15094.0101</v>
       </c>
       <c r="G227" t="n">
+        <v>55.59333333333333</v>
+      </c>
+      <c r="H227" t="n">
         <v>55.66</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8406,18 +9139,21 @@
         <v>43628</v>
       </c>
       <c r="G228" t="n">
+        <v>55.59333333333333</v>
+      </c>
+      <c r="H228" t="n">
         <v>55.655</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8441,18 +9177,21 @@
         <v>4180</v>
       </c>
       <c r="G229" t="n">
+        <v>55.68666666666666</v>
+      </c>
+      <c r="H229" t="n">
         <v>55.67166666666667</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8476,18 +9215,21 @@
         <v>23545.8193</v>
       </c>
       <c r="G230" t="n">
+        <v>55.63333333333333</v>
+      </c>
+      <c r="H230" t="n">
         <v>55.64</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8511,18 +9253,21 @@
         <v>21729.7047</v>
       </c>
       <c r="G231" t="n">
+        <v>55.64</v>
+      </c>
+      <c r="H231" t="n">
         <v>55.625</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8546,18 +9291,21 @@
         <v>34258.8997</v>
       </c>
       <c r="G232" t="n">
+        <v>55.57333333333334</v>
+      </c>
+      <c r="H232" t="n">
         <v>55.59166666666667</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8581,18 +9329,21 @@
         <v>24003.6098</v>
       </c>
       <c r="G233" t="n">
+        <v>55.51333333333334</v>
+      </c>
+      <c r="H233" t="n">
         <v>55.56</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8616,18 +9367,21 @@
         <v>83053.7421</v>
       </c>
       <c r="G234" t="n">
+        <v>55.44</v>
+      </c>
+      <c r="H234" t="n">
         <v>55.53166666666667</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8651,18 +9405,21 @@
         <v>416.6666</v>
       </c>
       <c r="G235" t="n">
+        <v>55.42666666666667</v>
+      </c>
+      <c r="H235" t="n">
         <v>55.51166666666666</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8686,18 +9443,21 @@
         <v>5476.0079</v>
       </c>
       <c r="G236" t="n">
+        <v>55.42666666666667</v>
+      </c>
+      <c r="H236" t="n">
         <v>55.48999999999999</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8721,18 +9481,21 @@
         <v>583.9921000000001</v>
       </c>
       <c r="G237" t="n">
+        <v>55.42666666666667</v>
+      </c>
+      <c r="H237" t="n">
         <v>55.46833333333333</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8756,18 +9519,21 @@
         <v>892.3241</v>
       </c>
       <c r="G238" t="n">
+        <v>55.42</v>
+      </c>
+      <c r="H238" t="n">
         <v>55.44666666666665</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8791,18 +9557,21 @@
         <v>19813.3338</v>
       </c>
       <c r="G239" t="n">
+        <v>55.38</v>
+      </c>
+      <c r="H239" t="n">
         <v>55.42833333333332</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8826,18 +9595,21 @@
         <v>1270</v>
       </c>
       <c r="G240" t="n">
+        <v>55.31333333333334</v>
+      </c>
+      <c r="H240" t="n">
         <v>55.42333333333332</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8861,18 +9633,21 @@
         <v>10</v>
       </c>
       <c r="G241" t="n">
+        <v>55.22666666666667</v>
+      </c>
+      <c r="H241" t="n">
         <v>55.41999999999998</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8896,18 +9671,21 @@
         <v>684</v>
       </c>
       <c r="G242" t="n">
+        <v>55.22000000000001</v>
+      </c>
+      <c r="H242" t="n">
         <v>55.41499999999998</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8931,18 +9709,21 @@
         <v>20658.4336</v>
       </c>
       <c r="G243" t="n">
+        <v>55.19333333333334</v>
+      </c>
+      <c r="H243" t="n">
         <v>55.40666666666664</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8966,18 +9747,21 @@
         <v>8336.6909</v>
       </c>
       <c r="G244" t="n">
+        <v>55.06666666666668</v>
+      </c>
+      <c r="H244" t="n">
         <v>55.39666666666665</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9001,18 +9785,21 @@
         <v>1000</v>
       </c>
       <c r="G245" t="n">
+        <v>55.10000000000001</v>
+      </c>
+      <c r="H245" t="n">
         <v>55.39166666666664</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9036,18 +9823,21 @@
         <v>557.4824</v>
       </c>
       <c r="G246" t="n">
+        <v>55.08000000000001</v>
+      </c>
+      <c r="H246" t="n">
         <v>55.39499999999997</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9071,18 +9861,21 @@
         <v>40142.9787</v>
       </c>
       <c r="G247" t="n">
+        <v>55.12000000000001</v>
+      </c>
+      <c r="H247" t="n">
         <v>55.39499999999997</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9106,18 +9899,21 @@
         <v>299.6315</v>
       </c>
       <c r="G248" t="n">
+        <v>55.16000000000001</v>
+      </c>
+      <c r="H248" t="n">
         <v>55.38666666666664</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9141,18 +9937,21 @@
         <v>48177.0942</v>
       </c>
       <c r="G249" t="n">
+        <v>55.20666666666668</v>
+      </c>
+      <c r="H249" t="n">
         <v>55.38333333333331</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9176,18 +9975,21 @@
         <v>1253</v>
       </c>
       <c r="G250" t="n">
+        <v>55.22000000000001</v>
+      </c>
+      <c r="H250" t="n">
         <v>55.38333333333331</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9211,18 +10013,21 @@
         <v>140.7647</v>
       </c>
       <c r="G251" t="n">
+        <v>55.22666666666668</v>
+      </c>
+      <c r="H251" t="n">
         <v>55.37999999999997</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9246,18 +10051,21 @@
         <v>479.1891</v>
       </c>
       <c r="G252" t="n">
+        <v>55.25333333333334</v>
+      </c>
+      <c r="H252" t="n">
         <v>55.37999999999997</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9281,18 +10089,21 @@
         <v>2296.8793</v>
       </c>
       <c r="G253" t="n">
+        <v>55.28666666666668</v>
+      </c>
+      <c r="H253" t="n">
         <v>55.38166666666664</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9316,18 +10127,21 @@
         <v>6890.6474</v>
       </c>
       <c r="G254" t="n">
+        <v>55.30666666666669</v>
+      </c>
+      <c r="H254" t="n">
         <v>55.3833333333333</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9351,18 +10165,21 @@
         <v>1831.2503</v>
       </c>
       <c r="G255" t="n">
+        <v>55.30000000000002</v>
+      </c>
+      <c r="H255" t="n">
         <v>55.38166666666664</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9386,18 +10203,21 @@
         <v>219.3647</v>
       </c>
       <c r="G256" t="n">
+        <v>55.30000000000002</v>
+      </c>
+      <c r="H256" t="n">
         <v>55.3833333333333</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9421,18 +10241,21 @@
         <v>10</v>
       </c>
       <c r="G257" t="n">
+        <v>55.29333333333334</v>
+      </c>
+      <c r="H257" t="n">
         <v>55.37999999999997</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9456,18 +10279,21 @@
         <v>30562.4723</v>
       </c>
       <c r="G258" t="n">
+        <v>55.26666666666667</v>
+      </c>
+      <c r="H258" t="n">
         <v>55.36999999999998</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9491,18 +10317,401 @@
         <v>10</v>
       </c>
       <c r="G259" t="n">
+        <v>55.25333333333334</v>
+      </c>
+      <c r="H259" t="n">
         <v>55.36166666666664</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C260" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D260" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E260" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F260" t="n">
+        <v>16616.065</v>
+      </c>
+      <c r="G260" t="n">
+        <v>55.23333333333333</v>
+      </c>
+      <c r="H260" t="n">
+        <v>55.35333333333331</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C261" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D261" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E261" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F261" t="n">
+        <v>2311.137</v>
+      </c>
+      <c r="G261" t="n">
+        <v>55.21333333333333</v>
+      </c>
+      <c r="H261" t="n">
+        <v>55.34833333333331</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>55</v>
+      </c>
+      <c r="C262" t="n">
+        <v>55</v>
+      </c>
+      <c r="D262" t="n">
+        <v>55</v>
+      </c>
+      <c r="E262" t="n">
+        <v>55</v>
+      </c>
+      <c r="F262" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G262" t="n">
+        <v>55.21333333333333</v>
+      </c>
+      <c r="H262" t="n">
+        <v>55.34499999999998</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>55</v>
+      </c>
+      <c r="C263" t="n">
+        <v>55</v>
+      </c>
+      <c r="D263" t="n">
+        <v>55</v>
+      </c>
+      <c r="E263" t="n">
+        <v>55</v>
+      </c>
+      <c r="F263" t="n">
+        <v>2.1908</v>
+      </c>
+      <c r="G263" t="n">
+        <v>55.20666666666666</v>
+      </c>
+      <c r="H263" t="n">
+        <v>55.34166666666665</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>55</v>
+      </c>
+      <c r="C264" t="n">
+        <v>55</v>
+      </c>
+      <c r="D264" t="n">
+        <v>55</v>
+      </c>
+      <c r="E264" t="n">
+        <v>55</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1050.5092</v>
+      </c>
+      <c r="G264" t="n">
+        <v>55.20666666666666</v>
+      </c>
+      <c r="H264" t="n">
+        <v>55.33833333333332</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>55</v>
+      </c>
+      <c r="C265" t="n">
+        <v>55</v>
+      </c>
+      <c r="D265" t="n">
+        <v>55</v>
+      </c>
+      <c r="E265" t="n">
+        <v>55</v>
+      </c>
+      <c r="F265" t="n">
+        <v>879.0545</v>
+      </c>
+      <c r="G265" t="n">
+        <v>55.17999999999999</v>
+      </c>
+      <c r="H265" t="n">
+        <v>55.33333333333332</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C266" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="D266" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="E266" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1048.366</v>
+      </c>
+      <c r="G266" t="n">
+        <v>55.18666666666665</v>
+      </c>
+      <c r="H266" t="n">
+        <v>55.32833333333333</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C267" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="D267" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="E267" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="F267" t="n">
+        <v>267.161</v>
+      </c>
+      <c r="G267" t="n">
+        <v>55.17333333333332</v>
+      </c>
+      <c r="H267" t="n">
+        <v>55.32333333333333</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C268" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="D268" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="E268" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G268" t="n">
+        <v>55.15333333333331</v>
+      </c>
+      <c r="H268" t="n">
+        <v>55.31833333333334</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C269" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="D269" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="E269" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1972</v>
+      </c>
+      <c r="G269" t="n">
+        <v>55.13333333333331</v>
+      </c>
+      <c r="H269" t="n">
+        <v>55.31166666666667</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest POWR.xlsx
+++ b/BackTest/2019-10-29 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N327"/>
+  <dimension ref="A1:M327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-5161358.24876649</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-5173933.53686649</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-5173013.53686649</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-5167764.35856649</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,24 +1705,15 @@
         <v>-5357623.009766489</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>55.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1866,24 +1738,15 @@
         <v>-5392899.67296649</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>55.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1908,24 +1771,15 @@
         <v>-5485824.764566489</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>55.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1950,24 +1804,15 @@
         <v>-5479474.467966489</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>54.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1992,24 +1837,15 @@
         <v>-5479474.467966489</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>55.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2034,24 +1870,15 @@
         <v>-5479474.467966489</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>55.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2076,24 +1903,15 @@
         <v>-5478402.64886649</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>55.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2120,20 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2160,20 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2200,20 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2240,20 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2280,20 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2320,20 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2360,20 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2400,20 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2438,24 +2200,15 @@
         <v>-5497120.87856649</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>54.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2480,24 +2233,15 @@
         <v>-5501020.87856649</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>54.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2522,24 +2266,15 @@
         <v>-5499922.811366489</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2564,24 +2299,15 @@
         <v>-5508926.609966489</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>54.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2606,24 +2332,15 @@
         <v>-5507419.609966489</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2648,24 +2365,15 @@
         <v>-5505029.87126649</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>54.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2690,24 +2398,15 @@
         <v>-5498082.39536649</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>54.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2732,24 +2431,15 @@
         <v>-5545270.28876649</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>54.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2774,24 +2464,15 @@
         <v>-5545876.70826649</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2816,24 +2497,15 @@
         <v>-5545876.70826649</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>53.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2858,24 +2530,15 @@
         <v>-5545876.70826649</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>53.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2900,24 +2563,15 @@
         <v>-5536876.70826649</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>53.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2942,24 +2596,15 @@
         <v>-5536876.70826649</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2984,24 +2629,15 @@
         <v>-5532454.70826649</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3026,24 +2662,15 @@
         <v>-5532454.70826649</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>54.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3068,24 +2695,15 @@
         <v>-5532454.70826649</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>54.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3110,24 +2728,15 @@
         <v>-5456713.77856649</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>54.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3152,24 +2761,15 @@
         <v>-5457985.39096649</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>54.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3194,24 +2794,15 @@
         <v>-5457985.39096649</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>54.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3236,24 +2827,15 @@
         <v>-5459954.39096649</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>54.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3280,20 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3320,20 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3360,20 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3400,20 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3440,20 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3480,20 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3520,20 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3560,20 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3600,20 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3638,22 +3157,19 @@
         <v>-5475903.01946649</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>54.2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>54.2</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3680,20 +3196,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3718,22 +3233,23 @@
         <v>-5451761.80896649</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>54.2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3760,20 +3276,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3798,22 +3313,23 @@
         <v>-5495662.594566491</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>54.1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3840,20 +3356,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3880,20 +3395,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3920,20 +3434,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3960,20 +3473,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3998,22 +3510,23 @@
         <v>-5524352.29256649</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>53.8</v>
+      </c>
+      <c r="J93" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4038,22 +3551,23 @@
         <v>-5524352.29256649</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>53.9</v>
+      </c>
+      <c r="J94" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4078,22 +3592,23 @@
         <v>-5523123.15926649</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>53.9</v>
+      </c>
+      <c r="J95" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4120,20 +3635,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4160,20 +3674,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4200,20 +3713,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4240,20 +3752,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4280,20 +3791,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4320,20 +3830,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4360,20 +3869,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4398,22 +3906,23 @@
         <v>-4887218.681566491</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>54.6</v>
+      </c>
+      <c r="J103" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4440,20 +3949,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4480,20 +3988,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4518,22 +4025,23 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>55.3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4558,22 +4066,23 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>55.3</v>
+      </c>
+      <c r="J107" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4598,22 +4107,23 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>55.3</v>
+      </c>
+      <c r="J108" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4638,22 +4148,23 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>55.3</v>
+      </c>
+      <c r="J109" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4678,22 +4189,23 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>55.3</v>
+      </c>
+      <c r="J110" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4718,22 +4230,23 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>55.3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4758,22 +4271,23 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>55.3</v>
+      </c>
+      <c r="J112" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4798,22 +4312,23 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>55.3</v>
+      </c>
+      <c r="J113" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4838,22 +4353,23 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>55.3</v>
+      </c>
+      <c r="J114" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4878,22 +4394,23 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>55.3</v>
+      </c>
+      <c r="J115" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4918,22 +4435,23 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>55.3</v>
+      </c>
+      <c r="J116" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4958,22 +4476,23 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>55.3</v>
+      </c>
+      <c r="J117" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4998,22 +4517,23 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>55.3</v>
+      </c>
+      <c r="J118" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5038,22 +4558,23 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>55.3</v>
+      </c>
+      <c r="J119" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5080,20 +4601,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5118,22 +4638,23 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>55.3</v>
+      </c>
+      <c r="J121" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5158,22 +4679,23 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>55.3</v>
+      </c>
+      <c r="J122" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5198,22 +4720,23 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>55.3</v>
+      </c>
+      <c r="J123" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5238,22 +4761,23 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>55.3</v>
+      </c>
+      <c r="J124" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5280,20 +4804,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5320,20 +4843,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5360,20 +4882,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5400,20 +4921,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5440,20 +4960,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5480,20 +4999,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5520,20 +5038,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5560,20 +5077,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5600,20 +5116,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5640,20 +5155,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5680,20 +5194,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5720,20 +5233,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5760,20 +5272,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5800,20 +5311,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5840,20 +5350,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5880,20 +5389,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5920,20 +5428,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5960,20 +5467,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6000,20 +5506,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6040,20 +5545,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6080,20 +5584,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6120,20 +5623,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6160,20 +5662,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6200,20 +5701,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6240,20 +5740,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6280,20 +5779,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6320,20 +5818,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6360,20 +5857,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6400,20 +5896,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6440,20 +5935,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6480,20 +5974,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6520,20 +6013,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6560,20 +6052,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6600,20 +6091,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6640,20 +6130,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6680,20 +6169,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6720,20 +6208,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6760,20 +6247,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6800,20 +6286,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6840,20 +6325,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6880,20 +6364,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6920,20 +6403,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6960,20 +6442,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7000,20 +6481,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7040,20 +6520,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7080,20 +6559,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7120,20 +6598,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7160,20 +6637,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7200,20 +6676,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7240,20 +6715,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7280,20 +6754,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7320,20 +6793,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7360,20 +6832,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7400,20 +6871,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7440,20 +6910,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7480,20 +6949,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7520,20 +6988,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7560,20 +7027,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7600,20 +7066,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7640,20 +7105,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7680,20 +7144,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7720,20 +7183,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7760,20 +7222,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7800,20 +7261,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7840,20 +7300,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7880,20 +7339,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7920,20 +7378,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7960,20 +7417,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8000,20 +7456,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8040,20 +7495,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8080,20 +7534,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8120,20 +7573,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8160,20 +7612,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8200,20 +7651,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8240,20 +7690,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8280,20 +7729,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8320,20 +7768,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8360,20 +7807,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8400,20 +7846,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8440,20 +7885,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8480,20 +7924,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8520,20 +7963,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8560,20 +8002,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8600,20 +8041,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8640,20 +8080,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8680,20 +8119,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8720,20 +8158,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8760,20 +8197,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8800,20 +8236,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8840,20 +8275,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8880,20 +8314,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8920,20 +8353,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8960,20 +8392,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9000,20 +8431,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9040,20 +8470,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9080,20 +8509,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9120,20 +8548,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9160,20 +8587,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9200,20 +8626,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9240,20 +8665,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9280,20 +8704,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9320,20 +8743,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9358,20 +8780,21 @@
         <v>7127475.453588747</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
+      <c r="L227" t="n">
+        <v>1.028210332103321</v>
+      </c>
       <c r="M227" t="inlineStr"/>
-      <c r="N227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9396,18 +8819,15 @@
         <v>7132644.172988747</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9432,18 +8852,15 @@
         <v>7114786.910088747</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9468,18 +8885,15 @@
         <v>7114786.910088747</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9504,18 +8918,15 @@
         <v>7114786.910088747</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9540,18 +8951,15 @@
         <v>7109757.282088747</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9576,18 +8984,15 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9612,18 +9017,15 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9648,18 +9050,15 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9684,18 +9083,15 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9720,18 +9116,15 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9756,18 +9149,15 @@
         <v>7095751.266288747</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9792,18 +9182,15 @@
         <v>7095751.266288747</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9828,18 +9215,15 @@
         <v>7095751.266288747</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9864,18 +9248,15 @@
         <v>7069475.463788747</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9902,16 +9283,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>1</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9938,16 +9316,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>1</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9974,16 +9349,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>1</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10010,16 +9382,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10046,16 +9415,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10082,16 +9448,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10118,16 +9481,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10154,16 +9514,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10190,16 +9547,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10226,16 +9580,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10262,16 +9613,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10298,16 +9646,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10334,16 +9679,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10370,16 +9712,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10406,16 +9745,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10442,16 +9778,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10478,16 +9811,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10514,16 +9844,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10550,16 +9877,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10586,16 +9910,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10622,16 +9943,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10658,16 +9976,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10694,16 +10009,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10730,16 +10042,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10766,16 +10075,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10802,16 +10108,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>1</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10838,16 +10141,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10874,16 +10174,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10910,16 +10207,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10946,16 +10240,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10982,16 +10273,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11018,16 +10306,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11054,16 +10339,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11090,16 +10372,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11126,16 +10405,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11162,16 +10438,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11198,16 +10471,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11234,16 +10504,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11270,16 +10537,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11306,16 +10570,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11342,16 +10603,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11378,16 +10636,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11414,16 +10669,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11448,18 +10700,15 @@
         <v>7149618.187488748</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11486,16 +10735,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>1</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11522,16 +10768,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11558,16 +10801,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11594,16 +10834,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11630,16 +10867,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11666,16 +10900,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11702,16 +10933,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11738,16 +10966,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11774,16 +10999,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11810,16 +11032,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11846,16 +11065,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11882,16 +11098,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11918,16 +11131,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11954,16 +11164,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11990,16 +11197,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -12026,16 +11230,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -12062,16 +11263,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -12098,16 +11296,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -12134,16 +11329,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12170,16 +11362,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12206,16 +11395,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12242,16 +11428,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12278,16 +11461,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12314,16 +11494,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12350,16 +11527,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12386,16 +11560,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12422,16 +11593,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12458,16 +11626,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12494,16 +11659,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12530,16 +11692,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12566,16 +11725,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12602,16 +11758,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12638,16 +11791,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12674,16 +11824,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12710,16 +11857,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12746,16 +11890,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12782,16 +11923,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12818,16 +11956,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12854,16 +11989,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12890,16 +12022,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12926,16 +12055,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12962,18 +12088,15 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest POWR.xlsx
+++ b/BackTest/2019-10-29 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1311,8 +1311,12 @@
       <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>55.7</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
@@ -1345,8 +1349,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1385,17 @@
         <v>-5173933.53686649</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,7 +1424,7 @@
         <v>-5173013.53686649</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1457,7 @@
         <v>-5167764.35856649</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1606,10 +1622,14 @@
         <v>-5252183.96846649</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>55.8</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
@@ -1639,11 +1659,19 @@
         <v>-5252183.96846649</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="J38" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1700,19 @@
         <v>-5331674.32316649</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1741,19 @@
         <v>-5357623.009766489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1782,19 @@
         <v>-5392899.67296649</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1823,19 @@
         <v>-5485824.764566489</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1864,19 @@
         <v>-5479474.467966489</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1905,19 @@
         <v>-5479474.467966489</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1946,19 @@
         <v>-5479474.467966489</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1987,19 @@
         <v>-5478402.64886649</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2028,19 @@
         <v>-5475802.64886649</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2072,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2111,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2150,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2189,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2228,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2264,19 @@
         <v>-5498130.48686649</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2305,19 @@
         <v>-5499390.57256649</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="J54" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2346,19 @@
         <v>-5497120.87856649</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2387,19 @@
         <v>-5501020.87856649</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="J56" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2428,19 @@
         <v>-5499922.811366489</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>54</v>
+      </c>
+      <c r="J57" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2469,19 @@
         <v>-5508926.609966489</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2513,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2552,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2591,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2630,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2666,19 @@
         <v>-5545876.70826649</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>54</v>
+      </c>
+      <c r="J63" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2707,19 @@
         <v>-5545876.70826649</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="J64" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2748,19 @@
         <v>-5545876.70826649</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="J65" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2789,19 @@
         <v>-5536876.70826649</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="J66" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2830,19 @@
         <v>-5536876.70826649</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>54</v>
+      </c>
+      <c r="J67" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2871,19 @@
         <v>-5532454.70826649</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>54</v>
+      </c>
+      <c r="J68" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2912,19 @@
         <v>-5532454.70826649</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2953,19 @@
         <v>-5532454.70826649</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2994,19 @@
         <v>-5456713.77856649</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +3035,19 @@
         <v>-5457985.39096649</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="J72" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3076,19 @@
         <v>-5457985.39096649</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3117,19 @@
         <v>-5459954.39096649</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3161,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3200,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3239,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3278,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3317,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3356,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3395,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3434,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3473,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,15 +3509,17 @@
         <v>-5475903.01946649</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>54.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
+        <v>55.8</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,15 +3548,17 @@
         <v>-5451761.80896649</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>53.9</v>
+      </c>
       <c r="J85" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3233,13 +3589,13 @@
         <v>-5451761.80896649</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>54.2</v>
       </c>
       <c r="J86" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3274,11 +3630,13 @@
         <v>-5495662.594566491</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>54.2</v>
+      </c>
       <c r="J87" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3313,13 +3671,11 @@
         <v>-5495662.594566491</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>54.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3358,7 +3714,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3397,7 +3753,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3436,7 +3792,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3475,7 +3831,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3510,13 +3866,11 @@
         <v>-5524352.29256649</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>53.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3551,13 +3905,11 @@
         <v>-5524352.29256649</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>53.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3592,13 +3944,11 @@
         <v>-5523123.15926649</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>53.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3637,7 +3987,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3676,7 +4026,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3715,7 +4065,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3754,7 +4104,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3793,7 +4143,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3832,7 +4182,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3871,7 +4221,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3906,13 +4256,11 @@
         <v>-4887218.681566491</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>54.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3951,7 +4299,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -3990,7 +4338,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4025,13 +4373,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4066,13 +4412,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4107,13 +4451,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4148,13 +4490,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4189,13 +4529,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4230,13 +4568,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4271,13 +4607,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4312,13 +4646,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4353,13 +4685,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4394,13 +4724,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4435,13 +4763,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4476,13 +4802,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4517,13 +4841,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4558,13 +4880,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4603,7 +4923,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4638,13 +4958,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4679,13 +4997,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4720,13 +5036,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4761,13 +5075,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4806,7 +5118,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4845,7 +5157,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4884,7 +5196,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4923,7 +5235,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4962,7 +5274,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5001,7 +5313,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5040,7 +5352,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5079,7 +5391,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5118,7 +5430,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5157,7 +5469,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5196,7 +5508,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5235,7 +5547,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5274,7 +5586,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5313,7 +5625,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5352,7 +5664,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5391,7 +5703,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5430,7 +5742,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5469,7 +5781,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5508,7 +5820,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5547,7 +5859,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5586,7 +5898,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5625,7 +5937,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5664,7 +5976,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5703,7 +6015,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5742,7 +6054,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5781,7 +6093,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5820,7 +6132,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5859,7 +6171,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5898,7 +6210,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5937,7 +6249,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5976,7 +6288,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6015,7 +6327,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6054,7 +6366,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6093,7 +6405,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6132,7 +6444,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6171,7 +6483,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6210,7 +6522,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6249,7 +6561,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6288,7 +6600,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6327,7 +6639,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6366,7 +6678,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6405,7 +6717,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6444,7 +6756,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6483,7 +6795,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6522,7 +6834,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6561,7 +6873,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6600,7 +6912,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6639,7 +6951,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6678,7 +6990,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6717,7 +7029,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6756,7 +7068,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6795,7 +7107,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6834,7 +7146,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6873,7 +7185,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6912,7 +7224,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6951,7 +7263,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6990,7 +7302,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7029,7 +7341,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7068,7 +7380,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7107,7 +7419,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7146,7 +7458,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7185,7 +7497,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7224,7 +7536,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7263,7 +7575,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7302,7 +7614,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7341,7 +7653,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7380,7 +7692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7419,7 +7731,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7458,7 +7770,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7497,7 +7809,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7536,7 +7848,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7575,7 +7887,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7614,7 +7926,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7653,7 +7965,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7692,7 +8004,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7731,7 +8043,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7770,7 +8082,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7809,7 +8121,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7848,7 +8160,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7887,7 +8199,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7926,7 +8238,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7965,7 +8277,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8004,7 +8316,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8043,7 +8355,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8082,7 +8394,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8121,7 +8433,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8160,7 +8472,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8199,7 +8511,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8238,7 +8550,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8277,7 +8589,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8316,7 +8628,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8355,7 +8667,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8394,7 +8706,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8433,7 +8745,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8472,7 +8784,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8507,19 +8819,19 @@
         <v>6968168.038180877</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>54.2</v>
+        <v>55.8</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>1</v>
+        <v>0.9860394265232975</v>
       </c>
       <c r="M220" t="inlineStr"/>
     </row>
@@ -8546,17 +8858,11 @@
         <v>6968020.259780877</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8588,14 +8894,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8627,14 +8927,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8663,17 +8957,11 @@
         <v>7123854.415480877</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8705,14 +8993,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8744,14 +9026,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8780,19 +9056,13 @@
         <v>7127475.453588747</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
-        <v>1.028210332103321</v>
+        <v>1</v>
       </c>
       <c r="M227" t="inlineStr"/>
     </row>
@@ -8819,7 +9089,7 @@
         <v>7132644.172988747</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8852,7 +9122,7 @@
         <v>7114786.910088747</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8885,7 +9155,7 @@
         <v>7114786.910088747</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8918,7 +9188,7 @@
         <v>7114786.910088747</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8951,7 +9221,7 @@
         <v>7109757.282088747</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8984,7 +9254,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9017,7 +9287,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9050,7 +9320,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9083,7 +9353,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9116,7 +9386,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9149,7 +9419,7 @@
         <v>7095751.266288747</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9182,7 +9452,7 @@
         <v>7095751.266288747</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9215,7 +9485,7 @@
         <v>7095751.266288747</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9248,7 +9518,7 @@
         <v>7069475.463788747</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9314,7 +9584,7 @@
         <v>7068975.463788747</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9347,7 +9617,7 @@
         <v>7047868.050688747</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9380,7 +9650,7 @@
         <v>7047868.050688747</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9413,7 +9683,7 @@
         <v>7061836.050688747</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9446,7 +9716,7 @@
         <v>7061364.549988748</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9479,7 +9749,7 @@
         <v>7061910.083288748</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9512,7 +9782,7 @@
         <v>7061910.083288748</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9545,7 +9815,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9578,7 +9848,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9611,7 +9881,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9644,7 +9914,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9677,7 +9947,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9710,7 +9980,7 @@
         <v>7067763.001988748</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9743,7 +10013,7 @@
         <v>7067753.001988748</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9776,7 +10046,7 @@
         <v>7067753.001988748</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9809,7 +10079,7 @@
         <v>7066637.922988748</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10370,7 +10640,7 @@
         <v>7072212.401988747</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10403,7 +10673,7 @@
         <v>7072212.401988747</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10436,7 +10706,7 @@
         <v>7072212.401988747</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10469,7 +10739,7 @@
         <v>7072212.401988747</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10502,7 +10772,7 @@
         <v>7047061.506988747</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10535,7 +10805,7 @@
         <v>7047061.506988747</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10568,7 +10838,7 @@
         <v>7047604.919388747</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10601,7 +10871,7 @@
         <v>7140216.240588747</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10634,7 +10904,7 @@
         <v>7163457.897188747</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10667,7 +10937,7 @@
         <v>7164712.197588747</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10700,7 +10970,7 @@
         <v>7149618.187488748</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10733,7 +11003,7 @@
         <v>7149618.187488748</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10766,7 +11036,7 @@
         <v>7153798.187488748</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10997,7 +11267,7 @@
         <v>7053613.699588748</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11030,7 +11300,7 @@
         <v>7053613.699588748</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11096,7 +11366,7 @@
         <v>7073427.033388748</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11129,7 +11399,7 @@
         <v>7074697.033388748</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11162,7 +11432,7 @@
         <v>7074707.033388748</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11195,7 +11465,7 @@
         <v>7074023.033388748</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11228,7 +11498,7 @@
         <v>7053364.599788748</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11261,7 +11531,7 @@
         <v>7045027.908888748</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11294,7 +11564,7 @@
         <v>7045027.908888748</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11327,7 +11597,7 @@
         <v>7045585.391288748</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11360,7 +11630,7 @@
         <v>7005442.412588748</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11393,7 +11663,7 @@
         <v>7005742.044088748</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11426,7 +11696,7 @@
         <v>6957564.949888748</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11459,7 +11729,7 @@
         <v>6958817.949888748</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11492,7 +11762,7 @@
         <v>6958677.185188748</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11525,7 +11795,7 @@
         <v>6959156.374288748</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11558,7 +11828,7 @@
         <v>6961453.253588748</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11591,7 +11861,7 @@
         <v>6961453.253588748</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12097,6 +12367,6 @@
       <c r="M327" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest POWR.xlsx
+++ b/BackTest/2019-10-29 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1309,14 +1309,10 @@
         <v>-5161358.24876649</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>55.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
@@ -1349,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1388,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1622,14 +1606,10 @@
         <v>-5252183.96846649</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="J37" t="n">
-        <v>55.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
@@ -1659,19 +1639,11 @@
         <v>-5252183.96846649</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="J38" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1700,624 +1672,518 @@
         <v>-5331674.32316649</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>25948.6866</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-5357623.009766489</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>35276.6632</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-5392899.67296649</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92925.0916</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-5485824.764566489</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6350.2966</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-5479474.467966489</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3039.3308</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-5479474.467966489</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2449.0377</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-5479474.467966489</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C46" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="E46" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1071.8191</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-5478402.64886649</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="C47" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2600</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-5475802.64886649</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C48" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="F48" t="n">
+        <v>245.6781</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-5476048.32696649</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>55</v>
+      </c>
+      <c r="C49" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D49" t="n">
+        <v>55</v>
+      </c>
+      <c r="E49" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3115.8727</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-5479164.19966649</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7567.2413</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-5471596.95836649</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="C51" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="D51" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="E51" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="F51" t="n">
+        <v>637.0749</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-5472234.03326649</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C52" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D52" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F52" t="n">
+        <v>17396.4536</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-5489630.48686649</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-5498130.48686649</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C54" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="E54" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1260.0857</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-5499390.57256649</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="J54" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="C40" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D40" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="E40" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F40" t="n">
-        <v>25948.6866</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-5357623.009766489</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="J40" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="C41" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E41" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F41" t="n">
-        <v>35276.6632</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-5392899.67296649</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="C42" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="D42" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="E42" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="F42" t="n">
-        <v>92925.0916</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-5485824.764566489</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D43" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E43" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F43" t="n">
-        <v>6350.2966</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-5479474.467966489</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="C44" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D44" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E44" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F44" t="n">
-        <v>3039.3308</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-5479474.467966489</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="J44" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="C45" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D45" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E45" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2449.0377</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-5479474.467966489</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="C46" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="D46" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="E46" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1071.8191</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-5478402.64886649</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="C47" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="D47" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="E47" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2600</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-5475802.64886649</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="J47" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="C48" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="D48" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="E48" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="F48" t="n">
-        <v>245.6781</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-5476048.32696649</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>55</v>
-      </c>
-      <c r="C49" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="D49" t="n">
-        <v>55</v>
-      </c>
-      <c r="E49" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3115.8727</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-5479164.19966649</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F50" t="n">
-        <v>7567.2413</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-5471596.95836649</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="C51" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="D51" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="E51" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="F51" t="n">
-        <v>637.0749</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-5472234.03326649</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="C52" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="D52" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="E52" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="F52" t="n">
-        <v>17396.4536</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-5489630.48686649</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="C53" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="D53" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="E53" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="F53" t="n">
-        <v>8500</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-5498130.48686649</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="J53" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="C54" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="D54" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="E54" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1260.0857</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-5499390.57256649</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2352,7 +2218,7 @@
         <v>54.2</v>
       </c>
       <c r="J55" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2387,13 +2253,11 @@
         <v>-5501020.87856649</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>54.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2428,13 +2292,11 @@
         <v>-5499922.811366489</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2469,13 +2331,11 @@
         <v>-5508926.609966489</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>54.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2514,7 +2374,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2553,7 +2413,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2592,7 +2452,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2631,7 +2491,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2666,13 +2526,11 @@
         <v>-5545876.70826649</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2707,13 +2565,11 @@
         <v>-5545876.70826649</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>53.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2748,13 +2604,11 @@
         <v>-5545876.70826649</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>53.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2789,13 +2643,11 @@
         <v>-5536876.70826649</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>53.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2830,13 +2682,11 @@
         <v>-5536876.70826649</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2871,13 +2721,11 @@
         <v>-5532454.70826649</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2912,13 +2760,11 @@
         <v>-5532454.70826649</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>54.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2953,13 +2799,11 @@
         <v>-5532454.70826649</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>54.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3000,7 +2844,7 @@
         <v>54.1</v>
       </c>
       <c r="J71" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3041,7 +2885,7 @@
         <v>54.4</v>
       </c>
       <c r="J72" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3082,7 +2926,7 @@
         <v>54.3</v>
       </c>
       <c r="J73" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3117,13 +2961,11 @@
         <v>-5459954.39096649</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>54.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3162,7 +3004,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3201,7 +3043,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3240,7 +3082,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3279,7 +3121,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3314,11 +3156,13 @@
         <v>-5464112.03776649</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>54.3</v>
+      </c>
       <c r="J79" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3353,11 +3197,13 @@
         <v>-5465892.53976649</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>54.1</v>
+      </c>
       <c r="J80" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3396,7 +3242,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3435,7 +3281,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3470,11 +3316,13 @@
         <v>-5475874.01946649</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>54.2</v>
+      </c>
       <c r="J83" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3509,11 +3357,13 @@
         <v>-5475903.01946649</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>54.2</v>
+      </c>
       <c r="J84" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3554,7 +3404,7 @@
         <v>53.9</v>
       </c>
       <c r="J85" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3595,7 +3445,7 @@
         <v>54.2</v>
       </c>
       <c r="J86" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3636,7 +3486,7 @@
         <v>54.2</v>
       </c>
       <c r="J87" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3671,11 +3521,13 @@
         <v>-5495662.594566491</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>54.1</v>
+      </c>
       <c r="J88" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3710,11 +3562,13 @@
         <v>-5495662.594566491</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>54.1</v>
+      </c>
       <c r="J89" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3753,7 +3607,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3788,11 +3642,13 @@
         <v>-5520337.66136649</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>54</v>
+      </c>
       <c r="J91" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3831,7 +3687,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3870,7 +3726,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3909,7 +3765,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3948,7 +3804,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3987,7 +3843,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4026,7 +3882,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4065,7 +3921,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4104,7 +3960,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4143,7 +3999,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4182,7 +4038,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4221,7 +4077,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4260,7 +4116,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4299,7 +4155,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4338,7 +4194,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4377,7 +4233,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4412,19 +4268,19 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>1.007820512820513</v>
       </c>
       <c r="M107" t="inlineStr"/>
     </row>
@@ -4451,17 +4307,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4490,17 +4340,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4529,17 +4373,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4568,17 +4406,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4607,17 +4439,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4646,17 +4472,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4685,17 +4505,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4724,17 +4538,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4763,17 +4571,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4805,14 +4607,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4844,14 +4640,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4883,14 +4673,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4922,14 +4706,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4961,14 +4739,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5000,14 +4772,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5039,14 +4805,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5078,14 +4838,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5117,14 +4871,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5156,14 +4904,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5195,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5234,14 +4970,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5270,17 +5000,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5309,17 +5033,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5348,17 +5066,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5387,17 +5099,11 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5426,17 +5132,11 @@
         <v>-4500568.775566491</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5465,17 +5165,11 @@
         <v>-4500568.775566491</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5504,17 +5198,11 @@
         <v>-4507964.796166492</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5543,17 +5231,11 @@
         <v>-4507964.796166492</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5582,17 +5264,11 @@
         <v>-4488237.510066492</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5621,17 +5297,11 @@
         <v>-4505929.083466492</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5660,17 +5330,11 @@
         <v>-4511721.011015682</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5699,17 +5363,11 @@
         <v>639378.9889843185</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5738,17 +5396,11 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5777,17 +5429,11 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5816,17 +5462,11 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5855,17 +5495,11 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5894,17 +5528,11 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5933,17 +5561,11 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5972,17 +5594,11 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6014,14 +5630,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6053,14 +5663,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6092,14 +5696,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6131,14 +5729,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6170,14 +5762,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6209,14 +5795,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6248,14 +5828,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6287,14 +5861,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6326,14 +5894,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6365,14 +5927,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6404,14 +5960,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6443,14 +5993,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6482,14 +6026,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6521,14 +6059,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6560,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6599,14 +6125,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6638,14 +6158,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6677,14 +6191,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6716,14 +6224,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6755,14 +6257,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6794,14 +6290,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6833,14 +6323,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6872,14 +6356,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6911,14 +6389,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6950,14 +6422,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6989,14 +6455,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7028,14 +6488,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7067,14 +6521,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7106,14 +6554,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7145,14 +6587,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7184,14 +6620,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7223,14 +6653,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7262,14 +6686,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7301,14 +6719,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7340,14 +6752,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7379,14 +6785,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7418,14 +6818,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7457,14 +6851,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7496,14 +6884,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7535,14 +6917,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7574,14 +6950,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7613,14 +6983,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7652,14 +7016,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7691,14 +7049,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7730,14 +7082,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7769,14 +7115,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7808,14 +7148,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7847,14 +7181,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7886,14 +7214,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7925,14 +7247,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7964,14 +7280,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8003,14 +7313,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8042,14 +7346,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8081,14 +7379,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8120,14 +7412,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8159,14 +7445,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8198,14 +7478,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8237,14 +7511,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8276,14 +7544,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8315,14 +7577,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8354,14 +7610,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8393,14 +7643,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8432,14 +7676,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8471,14 +7709,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8510,14 +7742,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8549,14 +7775,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8588,14 +7808,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8627,14 +7841,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8666,14 +7874,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8705,14 +7907,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8744,14 +7940,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8783,14 +7973,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8819,19 +8003,13 @@
         <v>6968168.038180877</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
-        <v>0.9860394265232975</v>
+        <v>1</v>
       </c>
       <c r="M220" t="inlineStr"/>
     </row>
@@ -8858,7 +8036,7 @@
         <v>6968020.259780877</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8957,7 +8135,7 @@
         <v>7123854.415480877</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -9584,7 +8762,7 @@
         <v>7068975.463788747</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9617,7 +8795,7 @@
         <v>7047868.050688747</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9650,7 +8828,7 @@
         <v>7047868.050688747</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9683,7 +8861,7 @@
         <v>7061836.050688747</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9716,7 +8894,7 @@
         <v>7061364.549988748</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9749,7 +8927,7 @@
         <v>7061910.083288748</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9782,7 +8960,7 @@
         <v>7061910.083288748</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9815,7 +8993,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9848,7 +9026,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9881,7 +9059,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9914,7 +9092,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9947,7 +9125,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9980,7 +9158,7 @@
         <v>7067763.001988748</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10013,7 +9191,7 @@
         <v>7067753.001988748</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10046,7 +9224,7 @@
         <v>7067753.001988748</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10079,7 +9257,7 @@
         <v>7066637.922988748</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10640,7 +9818,7 @@
         <v>7072212.401988747</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10673,7 +9851,7 @@
         <v>7072212.401988747</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10706,7 +9884,7 @@
         <v>7072212.401988747</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10739,7 +9917,7 @@
         <v>7072212.401988747</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10772,7 +9950,7 @@
         <v>7047061.506988747</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10805,7 +9983,7 @@
         <v>7047061.506988747</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10838,7 +10016,7 @@
         <v>7047604.919388747</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10871,7 +10049,7 @@
         <v>7140216.240588747</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10904,7 +10082,7 @@
         <v>7163457.897188747</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10937,7 +10115,7 @@
         <v>7164712.197588747</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10970,7 +10148,7 @@
         <v>7149618.187488748</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11003,7 +10181,7 @@
         <v>7149618.187488748</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11036,7 +10214,7 @@
         <v>7153798.187488748</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11267,7 +10445,7 @@
         <v>7053613.699588748</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11300,7 +10478,7 @@
         <v>7053613.699588748</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11366,7 +10544,7 @@
         <v>7073427.033388748</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11399,7 +10577,7 @@
         <v>7074697.033388748</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11432,7 +10610,7 @@
         <v>7074707.033388748</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11465,7 +10643,7 @@
         <v>7074023.033388748</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11498,7 +10676,7 @@
         <v>7053364.599788748</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11531,7 +10709,7 @@
         <v>7045027.908888748</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11564,7 +10742,7 @@
         <v>7045027.908888748</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11597,7 +10775,7 @@
         <v>7045585.391288748</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11630,7 +10808,7 @@
         <v>7005442.412588748</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11663,7 +10841,7 @@
         <v>7005742.044088748</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11696,7 +10874,7 @@
         <v>6957564.949888748</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11729,7 +10907,7 @@
         <v>6958817.949888748</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11762,7 +10940,7 @@
         <v>6958677.185188748</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11795,7 +10973,7 @@
         <v>6959156.374288748</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11828,7 +11006,7 @@
         <v>6961453.253588748</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11861,7 +11039,7 @@
         <v>6961453.253588748</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12367,6 +11545,6 @@
       <c r="M327" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest POWR.xlsx
+++ b/BackTest/2019-10-29 BackTest POWR.xlsx
@@ -2134,14 +2134,10 @@
         <v>-5498130.48686649</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="J53" t="n">
-        <v>54.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2171,19 +2167,11 @@
         <v>-5499390.57256649</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2212,19 +2200,11 @@
         <v>-5497120.87856649</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2256,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2295,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2334,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2373,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2412,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2451,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2490,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2529,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2565,15 +2497,15 @@
         <v>-5545876.70826649</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2604,12 +2536,12 @@
         <v>-5545876.70826649</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2643,12 +2575,12 @@
         <v>-5536876.70826649</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2682,12 +2614,12 @@
         <v>-5536876.70826649</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>54</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2724,9 +2656,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2763,9 +2693,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2802,9 +2730,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2838,14 +2764,10 @@
         <v>-5456713.77856649</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>54.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2879,14 +2801,10 @@
         <v>-5457985.39096649</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="J72" t="n">
-        <v>54.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2920,14 +2838,10 @@
         <v>-5457985.39096649</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="J73" t="n">
-        <v>54.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2964,9 +2878,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3003,9 +2915,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3042,9 +2952,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3081,9 +2989,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3120,9 +3026,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3156,14 +3060,10 @@
         <v>-5464112.03776649</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="J79" t="n">
-        <v>54.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3202,9 +3102,7 @@
       <c r="I80" t="n">
         <v>54.1</v>
       </c>
-      <c r="J80" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3238,12 +3136,12 @@
         <v>-5465278.53976649</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>54</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3277,12 +3175,12 @@
         <v>-5475874.01946649</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3321,9 +3219,7 @@
       <c r="I83" t="n">
         <v>54.2</v>
       </c>
-      <c r="J83" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3362,9 +3258,7 @@
       <c r="I84" t="n">
         <v>54.2</v>
       </c>
-      <c r="J84" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3403,9 +3297,7 @@
       <c r="I85" t="n">
         <v>53.9</v>
       </c>
-      <c r="J85" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3444,9 +3336,7 @@
       <c r="I86" t="n">
         <v>54.2</v>
       </c>
-      <c r="J86" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3485,9 +3375,7 @@
       <c r="I87" t="n">
         <v>54.2</v>
       </c>
-      <c r="J87" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3526,9 +3414,7 @@
       <c r="I88" t="n">
         <v>54.1</v>
       </c>
-      <c r="J88" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3567,9 +3453,7 @@
       <c r="I89" t="n">
         <v>54.1</v>
       </c>
-      <c r="J89" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3603,12 +3487,12 @@
         <v>-5506590.35906649</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3647,9 +3531,7 @@
       <c r="I91" t="n">
         <v>54</v>
       </c>
-      <c r="J91" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3683,12 +3565,12 @@
         <v>-5526631.42596649</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3722,12 +3604,12 @@
         <v>-5524352.29256649</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3761,12 +3643,12 @@
         <v>-5524352.29256649</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3800,12 +3682,12 @@
         <v>-5523123.15926649</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3839,12 +3721,12 @@
         <v>-5523123.15926649</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>54</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3878,12 +3760,12 @@
         <v>-5523123.15926649</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>54</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3917,12 +3799,12 @@
         <v>-5443113.15926649</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>54</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3956,12 +3838,12 @@
         <v>-5443113.15926649</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3995,12 +3877,12 @@
         <v>-5170113.15926649</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4034,12 +3916,12 @@
         <v>-5038113.15926649</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4073,12 +3955,12 @@
         <v>-4893113.15926649</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4112,12 +3994,12 @@
         <v>-4887218.681566491</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
         <v>54.6</v>
       </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4151,12 +4033,12 @@
         <v>-4886218.681566491</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4190,12 +4072,12 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>54.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4232,9 +4114,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4268,19 +4148,17 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.007820512820513</v>
+        <v>1</v>
       </c>
       <c r="M107" t="inlineStr"/>
     </row>
@@ -4307,11 +4185,15 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4340,11 +4222,15 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4373,11 +4259,15 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4406,11 +4296,15 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4439,11 +4333,15 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4472,11 +4370,15 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4505,11 +4407,15 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4538,11 +4444,15 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4571,11 +4481,15 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4608,7 +4522,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4641,7 +4559,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4674,7 +4596,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4707,7 +4633,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4740,7 +4670,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4773,7 +4707,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4806,7 +4744,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4839,7 +4781,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4872,7 +4818,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4905,7 +4855,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4938,7 +4892,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4971,7 +4929,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5000,11 +4962,15 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5033,11 +4999,15 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5066,11 +5036,15 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5099,11 +5073,15 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5132,11 +5110,15 @@
         <v>-4500568.775566491</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5165,11 +5147,15 @@
         <v>-4500568.775566491</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5198,11 +5184,15 @@
         <v>-4507964.796166492</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5231,11 +5221,15 @@
         <v>-4507964.796166492</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5264,11 +5258,15 @@
         <v>-4488237.510066492</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5297,11 +5295,15 @@
         <v>-4505929.083466492</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5330,11 +5332,15 @@
         <v>-4511721.011015682</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5363,11 +5369,15 @@
         <v>639378.9889843185</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5396,11 +5406,15 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5429,11 +5443,15 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5462,11 +5480,15 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5495,11 +5517,15 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5528,11 +5554,15 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5561,11 +5591,15 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5594,11 +5628,15 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5631,7 +5669,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5664,7 +5706,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5697,7 +5743,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5730,7 +5780,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5763,7 +5817,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5796,7 +5854,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5829,7 +5891,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5862,7 +5928,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5895,7 +5965,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5928,7 +6002,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5961,7 +6039,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5994,7 +6076,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6027,7 +6113,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6060,7 +6150,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6093,7 +6187,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6126,7 +6224,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6159,7 +6261,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6192,7 +6298,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6225,7 +6335,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6258,7 +6372,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6291,7 +6409,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6324,7 +6446,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6357,7 +6483,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6390,7 +6520,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6423,7 +6557,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6456,7 +6594,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6489,7 +6631,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6522,7 +6668,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6555,7 +6705,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6588,7 +6742,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6621,7 +6779,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6654,7 +6816,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6687,7 +6853,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6720,7 +6890,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6753,7 +6927,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6786,7 +6964,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6819,7 +7001,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6852,7 +7038,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6885,7 +7075,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6918,7 +7112,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6951,7 +7149,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6984,7 +7186,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7017,7 +7223,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7050,7 +7260,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7083,7 +7297,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7116,7 +7334,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7149,7 +7371,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7182,7 +7408,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7215,7 +7445,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7482,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7281,7 +7519,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7314,7 +7556,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7347,7 +7593,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7380,7 +7630,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7413,7 +7667,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7446,7 +7704,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7479,7 +7741,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7512,7 +7778,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7545,7 +7815,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7578,7 +7852,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7611,7 +7889,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7644,7 +7926,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7677,7 +7963,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7710,7 +8000,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7743,7 +8037,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7776,7 +8074,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7809,7 +8111,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7842,7 +8148,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7875,7 +8185,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7908,7 +8222,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7941,7 +8259,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7974,7 +8296,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8007,7 +8333,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8040,7 +8370,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8073,7 +8407,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8106,7 +8444,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8139,7 +8481,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8172,7 +8518,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8205,7 +8555,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8238,7 +8592,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8271,7 +8629,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8300,14 +8662,16 @@
         <v>7114786.910088747</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
@@ -8333,7 +8697,7 @@
         <v>7114786.910088747</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8366,7 +8730,7 @@
         <v>7114786.910088747</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8399,7 +8763,7 @@
         <v>7109757.282088747</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8432,7 +8796,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8465,7 +8829,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8498,7 +8862,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8531,7 +8895,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8564,7 +8928,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8597,7 +8961,7 @@
         <v>7095751.266288747</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8630,7 +8994,7 @@
         <v>7095751.266288747</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8663,7 +9027,7 @@
         <v>7095751.266288747</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8696,7 +9060,7 @@
         <v>7069475.463788747</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8729,7 +9093,7 @@
         <v>7069475.463788747</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8762,7 +9126,7 @@
         <v>7068975.463788747</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8795,7 +9159,7 @@
         <v>7047868.050688747</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8927,7 +9291,7 @@
         <v>7061910.083288748</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8960,7 +9324,7 @@
         <v>7061910.083288748</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8993,7 +9357,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9026,7 +9390,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9059,7 +9423,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9092,7 +9456,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9125,7 +9489,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9158,7 +9522,7 @@
         <v>7067763.001988748</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9191,7 +9555,7 @@
         <v>7067753.001988748</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9224,7 +9588,7 @@
         <v>7067753.001988748</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9257,7 +9621,7 @@
         <v>7066637.922988748</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9290,7 +9654,7 @@
         <v>7062494.530588748</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9323,7 +9687,7 @@
         <v>7062494.530588748</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9488,7 +9852,7 @@
         <v>7067783.818188747</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9521,7 +9885,7 @@
         <v>7067783.818188747</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9587,7 +9951,7 @@
         <v>7077688.941288747</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10115,7 +10479,7 @@
         <v>7164712.197588747</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10148,7 +10512,7 @@
         <v>7149618.187488748</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10181,7 +10545,7 @@
         <v>7149618.187488748</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10214,7 +10578,7 @@
         <v>7153798.187488748</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10247,7 +10611,7 @@
         <v>7130252.368188748</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
